--- a/media.xlsx
+++ b/media.xlsx
@@ -476,10 +476,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323.69097222222</v>
+        <v>45342.69097222222</v>
       </c>
       <c r="B2" t="n">
-        <v>188.79</v>
+        <v>198.39</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -493,10 +493,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323.69167824074</v>
+        <v>45342.69167824074</v>
       </c>
       <c r="B3" t="n">
-        <v>188.2</v>
+        <v>197.51</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -510,10 +510,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45323.69238425926</v>
+        <v>45342.69238425926</v>
       </c>
       <c r="B4" t="n">
-        <v>189</v>
+        <v>196.15</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -527,10 +527,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45323.69309027777</v>
+        <v>45342.69309027777</v>
       </c>
       <c r="B5" t="n">
-        <v>188.64</v>
+        <v>196.04</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,10 +544,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45323.6937962963</v>
+        <v>45342.6937962963</v>
       </c>
       <c r="B6" t="n">
-        <v>188.49</v>
+        <v>195.88</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45323.69450231481</v>
+        <v>45342.69450231481</v>
       </c>
       <c r="B7" t="n">
-        <v>188.82</v>
+        <v>195.86</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -578,10 +578,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45323.69520833333</v>
+        <v>45342.69520833333</v>
       </c>
       <c r="B8" t="n">
-        <v>189.12</v>
+        <v>194.44</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -595,10 +595,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45323.69591435185</v>
+        <v>45342.69591435185</v>
       </c>
       <c r="B9" t="n">
-        <v>189.4</v>
+        <v>194.25</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -612,10 +612,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45323.69662037037</v>
+        <v>45342.69662037037</v>
       </c>
       <c r="B10" t="n">
-        <v>189.51</v>
+        <v>193.95</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -629,10 +629,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45323.69733796296</v>
+        <v>45342.69732638889</v>
       </c>
       <c r="B11" t="n">
-        <v>189.21</v>
+        <v>193.72</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -646,10 +646,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45323.69804398148</v>
+        <v>45342.69803240741</v>
       </c>
       <c r="B12" t="n">
-        <v>189.23</v>
+        <v>194.12</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -663,10 +663,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45323.69875</v>
+        <v>45342.69873842593</v>
       </c>
       <c r="B13" t="n">
-        <v>188.85</v>
+        <v>194.85</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45323.69945601852</v>
+        <v>45342.69944444444</v>
       </c>
       <c r="B14" t="n">
-        <v>188.3</v>
+        <v>194.69</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -697,15 +697,15 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45323.70016203704</v>
+        <v>45342.70015046297</v>
       </c>
       <c r="B15" t="n">
-        <v>188.33</v>
+        <v>194.84</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>39.56842183558835</v>
+        <v>29.70111437999159</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -716,15 +716,15 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45323.70086805556</v>
+        <v>45342.70085648148</v>
       </c>
       <c r="B16" t="n">
-        <v>187.95</v>
+        <v>195.18</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>34.13125597483864</v>
+        <v>36.02749100668726</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -735,15 +735,15 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45323.70157407408</v>
+        <v>45342.7015625</v>
       </c>
       <c r="B17" t="n">
-        <v>188.49</v>
+        <v>194.29</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>45.57606691614969</v>
+        <v>28.73717373528173</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -754,15 +754,15 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45323.70228009259</v>
+        <v>45342.70226851852</v>
       </c>
       <c r="B18" t="n">
-        <v>188.79</v>
+        <v>193.6</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>50.70090731829813</v>
+        <v>24.58376580274961</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -773,15 +773,15 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45323.70298611111</v>
+        <v>45342.70297453704</v>
       </c>
       <c r="B19" t="n">
-        <v>189.02</v>
+        <v>192.84</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>54.2572526907697</v>
+        <v>20.98595404418242</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -792,15 +792,15 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45323.70369212963</v>
+        <v>45342.70368055555</v>
       </c>
       <c r="B20" t="n">
-        <v>188.77</v>
+        <v>193.72</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>50.03238541968589</v>
+        <v>33.1800577947181</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -811,15 +811,15 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45323.70439814815</v>
+        <v>45342.70438657407</v>
       </c>
       <c r="B21" t="n">
-        <v>188.93</v>
+        <v>193.86</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>52.57748350226241</v>
+        <v>34.90132301851382</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -830,15 +830,15 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45323.70510416666</v>
+        <v>45342.70509259259</v>
       </c>
       <c r="B22" t="n">
-        <v>188.8</v>
+        <v>193.83</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>50.33418532445015</v>
+        <v>34.69507611086355</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -849,15 +849,15 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45323.70581018519</v>
+        <v>45342.70579861111</v>
       </c>
       <c r="B23" t="n">
-        <v>188.42</v>
+        <v>193.98</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>44.37423046888905</v>
+        <v>36.70899616746904</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -868,15 +868,15 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45323.7065162037</v>
+        <v>45342.70650462963</v>
       </c>
       <c r="B24" t="n">
-        <v>188.06</v>
+        <v>194.02</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>39.59140603490427</v>
+        <v>37.26459639056071</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -887,15 +887,15 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45323.70722222222</v>
+        <v>45342.70721064815</v>
       </c>
       <c r="B25" t="n">
-        <v>187.72</v>
+        <v>193.86</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>35.67994603706876</v>
+        <v>35.90677844492829</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -906,15 +906,15 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45323.70792824074</v>
+        <v>45342.70791666667</v>
       </c>
       <c r="B26" t="n">
-        <v>188.01</v>
+        <v>193.59</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>41.03129556489539</v>
+        <v>33.67678198922155</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -925,17 +925,17 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45323.70863425926</v>
+        <v>45342.70862268518</v>
       </c>
       <c r="B27" t="n">
-        <v>187.81</v>
+        <v>193.02</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2129401280830621</v>
+        <v>-0.8357118596757402</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>38.64343313755682</v>
+        <v>29.51006778801417</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -946,17 +946,17 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45323.70934027778</v>
+        <v>45342.70932870371</v>
       </c>
       <c r="B28" t="n">
-        <v>187.53</v>
+        <v>192.94</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.259668170609757</v>
+        <v>-0.8488563221295919</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>35.5262906444093</v>
+        <v>28.96833334149419</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -967,17 +967,17 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45323.7100462963</v>
+        <v>45342.71003472222</v>
       </c>
       <c r="B29" t="n">
-        <v>187.27</v>
+        <v>192.86</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.3140600196479397</v>
+        <v>-0.8558628802101964</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>32.87449505684629</v>
+        <v>28.40673952583545</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -988,17 +988,17 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45323.71075231482</v>
+        <v>45342.71074074074</v>
       </c>
       <c r="B30" t="n">
-        <v>187.36</v>
+        <v>192.66</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3459161974453764</v>
+        <v>-0.8675533416099768</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>34.69173457742424</v>
+        <v>26.99761646384279</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1009,17 +1009,17 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45323.71145833333</v>
+        <v>45342.71144675926</v>
       </c>
       <c r="B31" t="n">
-        <v>188.14</v>
+        <v>193.23</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.304710454153394</v>
+        <v>-0.8213558017766331</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>47.86493509703011</v>
+        <v>36.64362029319164</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1030,17 +1030,17 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45323.71216435185</v>
+        <v>45342.71215277778</v>
       </c>
       <c r="B32" t="n">
-        <v>188.14</v>
+        <v>192.66</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2689542683359889</v>
+        <v>-0.8212710534538985</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>47.86493509703011</v>
+        <v>32.07889659538969</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1051,17 +1051,17 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45323.71287037037</v>
+        <v>45342.71285879629</v>
       </c>
       <c r="B33" t="n">
-        <v>188.39</v>
+        <v>192.78</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.2179321367886473</v>
+        <v>-0.8022727913383392</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>51.50130441121858</v>
+        <v>33.94448685261914</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1072,17 +1072,17 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45323.71358796296</v>
+        <v>45342.71356481482</v>
       </c>
       <c r="B34" t="n">
-        <v>188.48</v>
+        <v>193.23</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1682944880060688</v>
+        <v>-0.7423479672724511</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>52.77823550070492</v>
+        <v>40.54005192087639</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1093,19 +1093,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45323.71429398148</v>
+        <v>45342.71427083333</v>
       </c>
       <c r="B35" t="n">
-        <v>188.29</v>
+        <v>193.3</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1426434014897495</v>
+        <v>-0.6813544673088643</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2216063609494011</v>
+        <v>-0.7866617467503597</v>
       </c>
       <c r="E35" t="n">
-        <v>49.79738811019119</v>
+        <v>41.51826484807307</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1116,19 +1116,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45323.715</v>
+        <v>45342.71497685185</v>
       </c>
       <c r="B36" t="n">
-        <v>188.23</v>
+        <v>193.09</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.125707155341729</v>
+        <v>-0.6425549506159598</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2024265198278667</v>
+        <v>-0.7578403875234798</v>
       </c>
       <c r="E36" t="n">
-        <v>48.85893791186324</v>
+        <v>39.42288293603299</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1139,19 +1139,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45323.71570601852</v>
+        <v>45342.71568287037</v>
       </c>
       <c r="B37" t="n">
-        <v>188.09</v>
+        <v>193.55</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1221735476150343</v>
+        <v>-0.5681387486415588</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1863759253853002</v>
+        <v>-0.7199000597470957</v>
       </c>
       <c r="E37" t="n">
-        <v>46.64983355022581</v>
+        <v>45.86760852082865</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1162,19 +1162,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45323.71641203704</v>
+        <v>45342.71638888889</v>
       </c>
       <c r="B38" t="n">
-        <v>187.89</v>
+        <v>193.53</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1339671763464025</v>
+        <v>-0.5049563824377401</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1758941755775207</v>
+        <v>-0.6769113242852246</v>
       </c>
       <c r="E38" t="n">
-        <v>43.61591549122113</v>
+        <v>45.6402554925435</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1185,19 +1185,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45323.71711805555</v>
+        <v>45342.71709490741</v>
       </c>
       <c r="B39" t="n">
-        <v>187.93</v>
+        <v>193.57</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.13848962419749</v>
+        <v>-0.4465091566947592</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1684132653015146</v>
+        <v>-0.6308308907671316</v>
       </c>
       <c r="E39" t="n">
-        <v>44.39481904617938</v>
+        <v>46.21447080710997</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1208,19 +1208,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45323.71782407408</v>
+        <v>45342.71780092592</v>
       </c>
       <c r="B40" t="n">
-        <v>187.67</v>
+        <v>193.8</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1611953639760202</v>
+        <v>-0.3772811689280786</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1669696850364157</v>
+        <v>-0.580120946399321</v>
       </c>
       <c r="E40" t="n">
-        <v>40.48037803947081</v>
+        <v>49.51663160214592</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1231,19 +1231,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45323.71853009259</v>
+        <v>45342.71853009259</v>
       </c>
       <c r="B41" t="n">
-        <v>187.67</v>
+        <v>193.52</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1771477770335252</v>
+        <v>-0.3410793988097396</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1690053034358377</v>
+        <v>-0.5323126368814047</v>
       </c>
       <c r="E41" t="n">
-        <v>40.48037803947081</v>
+        <v>45.82789567678194</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1254,19 +1254,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45323.71924768519</v>
+        <v>45342.71923611111</v>
       </c>
       <c r="B42" t="n">
-        <v>187.48</v>
+        <v>193.5</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.2027840234229643</v>
+        <v>-0.3104246854827011</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.175761047433263</v>
+        <v>-0.487935046601664</v>
       </c>
       <c r="E42" t="n">
-        <v>37.66567346474142</v>
+        <v>45.56678088917546</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1277,19 +1277,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45323.7199537037</v>
+        <v>45342.71994212963</v>
       </c>
       <c r="B43" t="n">
-        <v>187.76</v>
+        <v>194.12</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1982222902702233</v>
+        <v>-0.2334111672295478</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.180253296000655</v>
+        <v>-0.4370302707272408</v>
       </c>
       <c r="E43" t="n">
-        <v>43.86071535549421</v>
+        <v>54.26611522965508</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1300,19 +1300,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45323.72065972222</v>
+        <v>45342.72065972222</v>
       </c>
       <c r="B44" t="n">
-        <v>187.49</v>
+        <v>194.18</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.2139278008739609</v>
+        <v>-0.165626659569881</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1869881969753162</v>
+        <v>-0.3827495484957689</v>
       </c>
       <c r="E44" t="n">
-        <v>39.75748160244203</v>
+        <v>55.01537150006365</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1323,19 +1323,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45323.72136574074</v>
+        <v>45342.72136574074</v>
       </c>
       <c r="B45" t="n">
-        <v>187.52</v>
+        <v>194.34</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.2214016020492693</v>
+        <v>-0.09786812326021277</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1938708779901068</v>
+        <v>-0.3257732634486576</v>
       </c>
       <c r="E45" t="n">
-        <v>40.42438245816847</v>
+        <v>57.03672863237192</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1346,19 +1346,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45323.72207175926</v>
+        <v>45342.72207175926</v>
       </c>
       <c r="B46" t="n">
-        <v>187.25</v>
+        <v>194.49</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.2462725106390451</v>
+        <v>-0.0316998327240583</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2043512045198945</v>
+        <v>-0.2669585773037378</v>
       </c>
       <c r="E46" t="n">
-        <v>36.50728086419486</v>
+        <v>58.90123406995992</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1369,19 +1369,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45323.72277777778</v>
+        <v>45342.72277777778</v>
       </c>
       <c r="B47" t="n">
-        <v>187.1</v>
+        <v>194.37</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.274917552860245</v>
+        <v>0.01093002262734899</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2184644741879646</v>
+        <v>-0.2113808573175204</v>
       </c>
       <c r="E47" t="n">
-        <v>34.5067829983042</v>
+        <v>56.77836191401316</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1392,19 +1392,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45323.7234837963</v>
+        <v>45342.7234837963</v>
       </c>
       <c r="B48" t="n">
-        <v>187.37</v>
+        <v>194.1</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.2726888246533861</v>
+        <v>0.0226664617473773</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2293093442810489</v>
+        <v>-0.1645713935045409</v>
       </c>
       <c r="E48" t="n">
-        <v>40.79561074243573</v>
+        <v>52.21812001695402</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1415,19 +1415,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45323.72418981481</v>
+        <v>45342.72418981481</v>
       </c>
       <c r="B49" t="n">
-        <v>187.61</v>
+        <v>193.14</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.24868980597671</v>
+        <v>-0.04497782625540481</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2331854366201811</v>
+        <v>-0.1406526800547137</v>
       </c>
       <c r="E49" t="n">
-        <v>45.77950705498898</v>
+        <v>39.93625087810733</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1438,19 +1438,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45323.72489583334</v>
+        <v>45342.72489583334</v>
       </c>
       <c r="B50" t="n">
-        <v>187.52</v>
+        <v>193.53</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.2342325713328819</v>
+        <v>-0.06635180886434</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2333948635627213</v>
+        <v>-0.1257925058166389</v>
       </c>
       <c r="E50" t="n">
-        <v>44.2743452418417</v>
+        <v>45.54023684731779</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1461,19 +1461,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45323.72560185185</v>
+        <v>45342.72561342592</v>
       </c>
       <c r="B51" t="n">
-        <v>187.16</v>
+        <v>192.97</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.2489543097591422</v>
+        <v>-0.1270140253373029</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2365067528020055</v>
+        <v>-0.1260368097207717</v>
       </c>
       <c r="E51" t="n">
-        <v>38.7816773234121</v>
+        <v>39.79831368637917</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1484,19 +1484,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45323.72631944445</v>
+        <v>45342.72631944445</v>
       </c>
       <c r="B52" t="n">
-        <v>187.16</v>
+        <v>192.67</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.2576513491556796</v>
+        <v>-0.1970255735672595</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.2407356720727403</v>
+        <v>-0.1402345624900693</v>
       </c>
       <c r="E52" t="n">
-        <v>38.78167732341211</v>
+        <v>37.09964391871769</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1507,19 +1507,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45323.72702546296</v>
+        <v>45342.72702546296</v>
       </c>
       <c r="B53" t="n">
-        <v>187.46</v>
+        <v>192.09</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.2375974472680014</v>
+        <v>-0.2959004267551961</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2401080271117925</v>
+        <v>-0.1713677353430947</v>
       </c>
       <c r="E53" t="n">
-        <v>45.33590439507957</v>
+        <v>32.50986597742532</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1530,19 +1530,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45323.72773148148</v>
+        <v>45342.72773148148</v>
       </c>
       <c r="B54" t="n">
-        <v>187.65</v>
+        <v>192.53</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.2040213424014041</v>
+        <v>-0.3348946800875581</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2328906901697149</v>
+        <v>-0.2040731242919873</v>
       </c>
       <c r="E54" t="n">
-        <v>49.05596828734673</v>
+        <v>38.70507310301826</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1553,19 +1553,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45323.7284375</v>
+        <v>45342.7284375</v>
       </c>
       <c r="B55" t="n">
-        <v>187.72</v>
+        <v>192.12</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1698062022078943</v>
+        <v>-0.3943358223840221</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.2202737925773508</v>
+        <v>-0.2421256639103943</v>
       </c>
       <c r="E55" t="n">
-        <v>50.39533612295751</v>
+        <v>35.44046664465893</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1576,19 +1576,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45323.72914351852</v>
+        <v>45342.72914351852</v>
       </c>
       <c r="B56" t="n">
-        <v>187.78</v>
+        <v>191.36</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.1362780302362125</v>
+        <v>-0.4970394430164617</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2034746401091231</v>
+        <v>-0.2931084197316078</v>
       </c>
       <c r="E56" t="n">
-        <v>51.57064794758911</v>
+        <v>30.33312895459872</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1599,19 +1599,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45323.72984953703</v>
+        <v>45342.72984953703</v>
       </c>
       <c r="B57" t="n">
-        <v>187.85</v>
+        <v>191.54</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.102872447862552</v>
+        <v>-0.557482001141409</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1833542016598089</v>
+        <v>-0.3459831360135681</v>
       </c>
       <c r="E57" t="n">
-        <v>52.970657423346</v>
+        <v>32.80307868439218</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1622,19 +1622,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45323.73059027778</v>
+        <v>45342.73055555556</v>
       </c>
       <c r="B58" t="n">
-        <v>187.58</v>
+        <v>191.87</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.09706610899019097</v>
+        <v>-0.5721594241607875</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.1660965831258853</v>
+        <v>-0.391218393643012</v>
       </c>
       <c r="E58" t="n">
-        <v>47.29182798079608</v>
+        <v>37.19904328783319</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1645,19 +1645,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45323.7312962963</v>
+        <v>45342.73127314815</v>
       </c>
       <c r="B59" t="n">
-        <v>187.04</v>
+        <v>191.92</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.1344877396857385</v>
+        <v>-0.5731498903536192</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.159774814437856</v>
+        <v>-0.4276046929851334</v>
       </c>
       <c r="E59" t="n">
-        <v>38.42029226087173</v>
+        <v>37.86232883035427</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1668,19 +1668,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45323.73200231481</v>
+        <v>45342.73197916667</v>
       </c>
       <c r="B60" t="n">
-        <v>186.86</v>
+        <v>192.03</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.1766330316587528</v>
+        <v>-0.5586193451730423</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1631464578820353</v>
+        <v>-0.4538076234227152</v>
       </c>
       <c r="E60" t="n">
-        <v>35.99628553212908</v>
+        <v>39.37924975617437</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1691,19 +1691,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45323.73270833334</v>
+        <v>45342.73269675926</v>
       </c>
       <c r="B61" t="n">
-        <v>186.85</v>
+        <v>191.85</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.208437656063154</v>
+        <v>-0.5552279568387064</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1722046975182591</v>
+        <v>-0.4740916901059135</v>
       </c>
       <c r="E61" t="n">
-        <v>35.86092041381693</v>
+        <v>37.75502102067246</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1714,19 +1714,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45323.73341435185</v>
+        <v>45342.73340277778</v>
       </c>
       <c r="B62" t="n">
-        <v>186.46</v>
+        <v>191.39</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.2620915622938185</v>
+        <v>-0.582938658778005</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.1901820704733709</v>
+        <v>-0.4958610838403318</v>
       </c>
       <c r="E62" t="n">
-        <v>30.96952362067266</v>
+        <v>33.90619072481367</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1737,19 +1737,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45323.73413194445</v>
+        <v>45342.7341087963</v>
       </c>
       <c r="B63" t="n">
-        <v>186.81</v>
+        <v>191.63</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.2732210721634658</v>
+        <v>-0.5788608479466575</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.2067898708113899</v>
+        <v>-0.5124610366615969</v>
       </c>
       <c r="E63" t="n">
-        <v>39.00961456207931</v>
+        <v>37.48685410108066</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1760,19 +1760,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45323.73483796296</v>
+        <v>45342.73481481482</v>
       </c>
       <c r="B64" t="n">
-        <v>186.38</v>
+        <v>191.32</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.3131291374782847</v>
+        <v>-0.5937986218201274</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.2280577241447689</v>
+        <v>-0.5287285536933031</v>
       </c>
       <c r="E64" t="n">
-        <v>33.80086995977949</v>
+        <v>34.85983531812143</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1783,19 +1783,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45323.73554398148</v>
+        <v>45342.73553240741</v>
       </c>
       <c r="B65" t="n">
-        <v>186.33</v>
+        <v>191.44</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.3448163209872632</v>
+        <v>-0.5891624204751622</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.2514094435132678</v>
+        <v>-0.5408153270496749</v>
       </c>
       <c r="E65" t="n">
-        <v>33.24499903194931</v>
+        <v>36.70881295594698</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1806,19 +1806,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45323.73625</v>
+        <v>45342.73625</v>
       </c>
       <c r="B66" t="n">
-        <v>186.33</v>
+        <v>191.76</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.3657129311896199</v>
+        <v>-0.5532889018091964</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.2742701410485382</v>
+        <v>-0.5433100420015793</v>
       </c>
       <c r="E66" t="n">
-        <v>33.24499903194931</v>
+        <v>41.47912748204252</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1829,19 +1829,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45323.73695601852</v>
+        <v>45342.73695601852</v>
       </c>
       <c r="B67" t="n">
-        <v>186.31</v>
+        <v>191.8</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.3795126921038445</v>
+        <v>-0.5156866988451725</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2953186512595994</v>
+        <v>-0.537785373370298</v>
       </c>
       <c r="E67" t="n">
-        <v>32.99328869674677</v>
+        <v>42.06692138642226</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1852,19 +1852,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45323.73766203703</v>
+        <v>45342.73766203703</v>
       </c>
       <c r="B68" t="n">
-        <v>185.92</v>
+        <v>191.75</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.4171106507448883</v>
+        <v>-0.4843381159092814</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.3196770511566572</v>
+        <v>-0.5270959218780947</v>
       </c>
       <c r="E68" t="n">
-        <v>28.46705873167707</v>
+        <v>41.50572229693156</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -1875,19 +1875,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45323.73836805556</v>
+        <v>45342.73836805556</v>
       </c>
       <c r="B69" t="n">
-        <v>185.83</v>
+        <v>191.62</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.4489938302984626</v>
+        <v>-0.4646281080146935</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.3455404069850183</v>
+        <v>-0.5146023591054145</v>
       </c>
       <c r="E69" t="n">
-        <v>27.52851110250936</v>
+        <v>40.0111554232851</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -1898,19 +1898,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45323.73908564815</v>
+        <v>45342.73907407407</v>
       </c>
       <c r="B70" t="n">
-        <v>185.89</v>
+        <v>191.57</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.4640704657857384</v>
+        <v>-0.4478794909119017</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.3692464187451623</v>
+        <v>-0.501257785466712</v>
       </c>
       <c r="E70" t="n">
-        <v>29.20428008017296</v>
+        <v>39.42316507137256</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -1921,19 +1921,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45323.73979166667</v>
+        <v>45342.73978009259</v>
       </c>
       <c r="B71" t="n">
-        <v>185.73</v>
+        <v>191.38</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.4833576250332214</v>
+        <v>-0.444810010379399</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.3920686600027742</v>
+        <v>-0.4899682304492494</v>
       </c>
       <c r="E71" t="n">
-        <v>27.38573221899026</v>
+        <v>37.18678302618746</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -1944,19 +1944,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45323.74049768518</v>
+        <v>45342.74048611111</v>
       </c>
       <c r="B72" t="n">
-        <v>185.71</v>
+        <v>192.06</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.4945557398278311</v>
+        <v>-0.383091072521978</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.4125660759677856</v>
+        <v>-0.4685927988637952</v>
       </c>
       <c r="E72" t="n">
-        <v>27.15807994675116</v>
+        <v>48.4564020407329</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -1967,19 +1967,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45323.74122685185</v>
+        <v>45342.74119212963</v>
       </c>
       <c r="B73" t="n">
-        <v>185.83</v>
+        <v>192.15</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.488120579170328</v>
+        <v>-0.3231905819211534</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.4276769766082941</v>
+        <v>-0.4395123554752668</v>
       </c>
       <c r="E73" t="n">
-        <v>30.87122915248513</v>
+        <v>49.7416435986302</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -1990,19 +1990,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45323.74193287037</v>
+        <v>45342.74189814815</v>
       </c>
       <c r="B74" t="n">
-        <v>185.77</v>
+        <v>192.35</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.4823024837358787</v>
+        <v>-0.2566224986080385</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.438602078033811</v>
+        <v>-0.4029343841018213</v>
       </c>
       <c r="E74" t="n">
-        <v>30.04650323927567</v>
+        <v>52.57185168779149</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2013,19 +2013,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45323.74265046296</v>
+        <v>45342.74260416667</v>
       </c>
       <c r="B75" t="n">
-        <v>185.71</v>
+        <v>192.28</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.4770341470423602</v>
+        <v>-0.2071275900452747</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4462884918355209</v>
+        <v>-0.3637730252905119</v>
       </c>
       <c r="E75" t="n">
-        <v>29.20623870596584</v>
+        <v>51.47916831185819</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2036,19 +2036,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45323.74336805556</v>
+        <v>45342.74331018519</v>
       </c>
       <c r="B76" t="n">
-        <v>185.42</v>
+        <v>192.4</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.4906041493817384</v>
+        <v>-0.1564164498317666</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4551516233447644</v>
+        <v>-0.3223017101987629</v>
       </c>
       <c r="E76" t="n">
-        <v>25.49507717447969</v>
+        <v>53.27218537091814</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2059,19 +2059,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45323.74407407407</v>
+        <v>45342.7440162037</v>
       </c>
       <c r="B77" t="n">
-        <v>185.47</v>
+        <v>192.41</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.4916563831304472</v>
+        <v>-0.1141052550794939</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.462452575301901</v>
+        <v>-0.2806624191749091</v>
       </c>
       <c r="E77" t="n">
-        <v>27.21238599480525</v>
+        <v>53.42663867587783</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2082,19 +2082,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45323.74478009259</v>
+        <v>45342.74473379629</v>
       </c>
       <c r="B78" t="n">
-        <v>185.28</v>
+        <v>192.89</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.5020345562027444</v>
+        <v>-0.04136451554330733</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4703689714820697</v>
+        <v>-0.2328028384485887</v>
       </c>
       <c r="E78" t="n">
-        <v>24.86679875201443</v>
+        <v>60.22304305841092</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2105,19 +2105,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45323.74548611111</v>
+        <v>45342.74543981482</v>
       </c>
       <c r="B79" t="n">
-        <v>185.11</v>
+        <v>192.97</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.5180056655191834</v>
+        <v>0.02247924922767197</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4798963102894924</v>
+        <v>-0.1817464209133366</v>
       </c>
       <c r="E79" t="n">
-        <v>22.95987028411761</v>
+        <v>61.23830434969928</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2128,19 +2128,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45323.74619212963</v>
+        <v>45342.74614583333</v>
       </c>
       <c r="B80" t="n">
-        <v>184.7</v>
+        <v>193.16</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.5573219971429637</v>
+        <v>0.08739981422797882</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.4953814476601867</v>
+        <v>-0.1279171738850735</v>
       </c>
       <c r="E80" t="n">
-        <v>19.14639339096587</v>
+        <v>63.6136820778276</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2151,19 +2151,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45323.74689814815</v>
+        <v>45342.74685185185</v>
       </c>
       <c r="B81" t="n">
-        <v>184.64</v>
+        <v>192.92</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.5865604678209309</v>
+        <v>0.1181221963310293</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.5136172516923355</v>
+        <v>-0.07870929984185297</v>
       </c>
       <c r="E81" t="n">
-        <v>18.65800101200119</v>
+        <v>58.71872535427712</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2174,19 +2174,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45323.74760416667</v>
+        <v>45342.74756944444</v>
       </c>
       <c r="B82" t="n">
-        <v>184.81</v>
+        <v>192.9</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.5892223982059761</v>
+        <v>0.1392508752285266</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.5287382809950637</v>
+        <v>-0.03511726482777705</v>
       </c>
       <c r="E82" t="n">
-        <v>24.53191502524787</v>
+        <v>58.31601794444173</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2197,19 +2197,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45323.74831018518</v>
+        <v>45342.74827546296</v>
       </c>
       <c r="B83" t="n">
-        <v>184.83</v>
+        <v>193.26</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.5829977294397679</v>
+        <v>0.182935727638494</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.5395901706840046</v>
+        <v>0.008493333665477155</v>
       </c>
       <c r="E83" t="n">
-        <v>25.21612041778751</v>
+        <v>63.20739088055961</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2220,19 +2220,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45323.74901620371</v>
+        <v>45342.74898148148</v>
       </c>
       <c r="B84" t="n">
-        <v>184.69</v>
+        <v>193.33</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.5826450946008492</v>
+        <v>0.2206610595535494</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.5482011554673736</v>
+        <v>0.05092687884309161</v>
       </c>
       <c r="E84" t="n">
-        <v>23.60297808081189</v>
+        <v>64.0897794450526</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2243,19 +2243,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45323.74972222222</v>
+        <v>45342.7496875</v>
       </c>
       <c r="B85" t="n">
-        <v>184.57</v>
+        <v>193.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.5853016331788865</v>
+        <v>0.2461078459878081</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.5556212510096762</v>
+        <v>0.08996307227203493</v>
       </c>
       <c r="E85" t="n">
-        <v>22.28689907924861</v>
+        <v>63.62030530782991</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2266,19 +2266,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45323.75042824074</v>
+        <v>45342.75039351852</v>
       </c>
       <c r="B86" t="n">
-        <v>184.81</v>
+        <v>193.37</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.5615675635955313</v>
+        <v>0.2680264638951257</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.5568105135268472</v>
+        <v>0.1255757505966531</v>
       </c>
       <c r="E86" t="n">
-        <v>30.61927182026146</v>
+        <v>64.46137021520457</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2289,42 +2289,42 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45323.75113425926</v>
+        <v>45342.75109953704</v>
       </c>
       <c r="B87" t="n">
-        <v>184.91</v>
+        <v>193.37</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.5285956565020626</v>
+        <v>0.282144737595786</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.5511675421218903</v>
+        <v>0.1568895479964797</v>
       </c>
       <c r="E87" t="n">
-        <v>33.8040508587559</v>
+        <v>64.46137021520457</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NO SE REALIZA OPERACION</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45323.75184027778</v>
+        <v>45342.75180555556</v>
       </c>
       <c r="B88" t="n">
-        <v>185.07</v>
+        <v>193.41</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.48397555087044</v>
+        <v>0.2931816216906782</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.5377291438716003</v>
+        <v>0.1841479627353194</v>
       </c>
       <c r="E88" t="n">
-        <v>38.6560100411341</v>
+        <v>65.08547104170142</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2335,19 +2335,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45323.75254629629</v>
+        <v>45342.75251157407</v>
       </c>
       <c r="B89" t="n">
-        <v>184.85</v>
+        <v>193.32</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.4610512453086812</v>
+        <v>0.2913081648226523</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.5223935641590165</v>
+        <v>0.205580003152786</v>
       </c>
       <c r="E89" t="n">
-        <v>34.87123213737243</v>
+        <v>62.42898490814849</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2358,19 +2358,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45323.75325231482</v>
+        <v>45342.75325231482</v>
       </c>
       <c r="B90" t="n">
-        <v>184.88</v>
+        <v>193.13</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.4354432994092008</v>
+        <v>0.2713639104124184</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.5050035112090534</v>
+        <v>0.2187367846047125</v>
       </c>
       <c r="E90" t="n">
-        <v>35.79439761699444</v>
+        <v>57.12786900057051</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2381,19 +2381,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45323.75395833333</v>
+        <v>45342.75395833333</v>
       </c>
       <c r="B91" t="n">
-        <v>184.96</v>
+        <v>193.3</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.4040360107482286</v>
+        <v>0.2662068574082639</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.4848100111168884</v>
+        <v>0.2282307991654228</v>
       </c>
       <c r="E91" t="n">
-        <v>38.30573412782267</v>
+        <v>60.37037641456839</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2404,19 +2404,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45323.75466435185</v>
+        <v>45342.75466435185</v>
       </c>
       <c r="B92" t="n">
-        <v>184.79</v>
+        <v>193.24</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.3883860152361081</v>
+        <v>0.2543464100983499</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.4655252119407324</v>
+        <v>0.2334539213520082</v>
       </c>
       <c r="E92" t="n">
-        <v>35.15865371257506</v>
+        <v>58.68340311001548</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2427,19 +2427,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45323.75538194444</v>
+        <v>45342.75537037037</v>
       </c>
       <c r="B93" t="n">
-        <v>184.97</v>
+        <v>193.02</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.357339596926181</v>
+        <v>0.2246056447119713</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.4438880889378222</v>
+        <v>0.2316842660240009</v>
       </c>
       <c r="E93" t="n">
-        <v>40.71275256331588</v>
+        <v>52.85165168216791</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2450,19 +2450,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45323.75609953704</v>
+        <v>45342.75607638889</v>
       </c>
       <c r="B94" t="n">
-        <v>184.65</v>
+        <v>192.95</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.3544702994249462</v>
+        <v>0.1931608211789069</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.426004531035247</v>
+        <v>0.2239795770549821</v>
       </c>
       <c r="E94" t="n">
-        <v>34.97681973435367</v>
+        <v>51.11120828463119</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2473,19 +2473,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45323.75680555555</v>
+        <v>45342.75679398148</v>
       </c>
       <c r="B95" t="n">
-        <v>184.76</v>
+        <v>193.21</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.3394077979704093</v>
+        <v>0.1870640412464297</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.4086851844222795</v>
+        <v>0.2165964698932716</v>
       </c>
       <c r="E95" t="n">
-        <v>38.20003428880352</v>
+        <v>56.80144751551693</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2496,19 +2496,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45323.75751157408</v>
+        <v>45342.7575</v>
       </c>
       <c r="B96" t="n">
-        <v>185.14</v>
+        <v>193.05</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2934254073952332</v>
+        <v>0.16739204510273</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.3856332290168702</v>
+        <v>0.2067555849351633</v>
       </c>
       <c r="E96" t="n">
-        <v>47.82237836824567</v>
+        <v>52.73381481975908</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2519,19 +2519,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45323.75821759259</v>
+        <v>45342.75820601852</v>
       </c>
       <c r="B97" t="n">
-        <v>185</v>
+        <v>193.23</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.2652235297948096</v>
+        <v>0.1644308852169161</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.3615512891724582</v>
+        <v>0.1982906449915139</v>
       </c>
       <c r="E97" t="n">
-        <v>45.03997607884286</v>
+        <v>56.50724605400845</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2542,19 +2542,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45323.75892361111</v>
+        <v>45342.75891203704</v>
       </c>
       <c r="B98" t="n">
-        <v>184.89</v>
+        <v>193.39</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.2488804800532307</v>
+        <v>0.1730005646771247</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.3390171273486127</v>
+        <v>0.1932326289286361</v>
       </c>
       <c r="E98" t="n">
-        <v>42.92665663815694</v>
+        <v>59.59506918518627</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2565,19 +2565,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45323.75962962963</v>
+        <v>45342.75961805556</v>
       </c>
       <c r="B99" t="n">
-        <v>184.73</v>
+        <v>193.12</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.2460033843292138</v>
+        <v>0.1562047230613359</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.3204143787447329</v>
+        <v>0.1858270477551761</v>
       </c>
       <c r="E99" t="n">
-        <v>39.98762293636723</v>
+        <v>52.78468089579328</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2588,19 +2588,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45323.76033564815</v>
+        <v>45342.76032407407</v>
       </c>
       <c r="B100" t="n">
-        <v>184.53</v>
+        <v>193.21</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.2569002080857956</v>
+        <v>0.1484449642676395</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.3077115446129455</v>
+        <v>0.1783506310576688</v>
       </c>
       <c r="E100" t="n">
-        <v>36.6131262138687</v>
+        <v>54.64525801002684</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2611,19 +2611,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45323.76104166666</v>
+        <v>45342.7610300926</v>
       </c>
       <c r="B101" t="n">
-        <v>185.22</v>
+        <v>193.35</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.207467232874194</v>
+        <v>0.1518417918307478</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.2876626822651952</v>
+        <v>0.1730488632122846</v>
       </c>
       <c r="E101" t="n">
-        <v>51.74332397981152</v>
+        <v>57.45388985183608</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2634,19 +2634,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45323.76174768519</v>
+        <v>45342.76173611111</v>
       </c>
       <c r="B102" t="n">
-        <v>185.41</v>
+        <v>193.6</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.1512166997838733</v>
+        <v>0.1727157531200305</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.2603734857689308</v>
+        <v>0.1729822411938338</v>
       </c>
       <c r="E102" t="n">
-        <v>54.93331924094743</v>
+        <v>61.98145085174226</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2657,19 +2657,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45323.7624537037</v>
+        <v>45342.76244212963</v>
       </c>
       <c r="B103" t="n">
-        <v>185.43</v>
+        <v>193.69</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.1038270604705644</v>
+        <v>0.1942812127840625</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.2290642007092576</v>
+        <v>0.1772420355118795</v>
       </c>
       <c r="E103" t="n">
-        <v>55.2685215217049</v>
+        <v>63.4878132901303</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2680,19 +2680,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45323.76315972222</v>
+        <v>45342.7631712963</v>
       </c>
       <c r="B104" t="n">
-        <v>185.42</v>
+        <v>193.36</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.06631293211435718</v>
+        <v>0.1826384109506591</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1965139469902775</v>
+        <v>0.1783213105996354</v>
       </c>
       <c r="E104" t="n">
-        <v>55.04805226538215</v>
+        <v>54.89863532807195</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2703,19 +2703,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45323.76386574074</v>
+        <v>45342.76387731481</v>
       </c>
       <c r="B105" t="n">
-        <v>185.29</v>
+        <v>193.16</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04653618844935181</v>
+        <v>0.1554807922954069</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.1665183952820924</v>
+        <v>0.1737532069387898</v>
       </c>
       <c r="E105" t="n">
-        <v>52.1364015285467</v>
+        <v>50.44438328165436</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2726,19 +2726,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45323.76457175926</v>
+        <v>45342.76458333333</v>
       </c>
       <c r="B106" t="n">
-        <v>185.28</v>
+        <v>193.08</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.03130898257563786</v>
+        <v>0.1260498284795233</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.1394765127408015</v>
+        <v>0.1642125312469365</v>
       </c>
       <c r="E106" t="n">
-        <v>51.90895415228468</v>
+        <v>48.74084852210373</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2749,19 +2749,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45323.76527777778</v>
+        <v>45342.76530092592</v>
       </c>
       <c r="B107" t="n">
-        <v>185.41</v>
+        <v>192.88</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.008651667630999782</v>
+        <v>0.08560049980917483</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.1133115437188411</v>
+        <v>0.1484901249593842</v>
       </c>
       <c r="E107" t="n">
-        <v>54.67707979504149</v>
+        <v>44.67863479848926</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2772,19 +2772,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45323.76598379629</v>
+        <v>45342.76601851852</v>
       </c>
       <c r="B108" t="n">
-        <v>185.09</v>
+        <v>192.67</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.0163286810773684</v>
+        <v>0.03618178931466787</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.09391497119054661</v>
+        <v>0.1260284578304409</v>
       </c>
       <c r="E108" t="n">
-        <v>47.4386378405492</v>
+        <v>40.83067743327772</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2795,19 +2795,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45323.76668981482</v>
+        <v>45342.76672453704</v>
       </c>
       <c r="B109" t="n">
-        <v>185.17</v>
+        <v>192.71</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.01577558698463122</v>
+        <v>0.0002419814991299063</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.07828709434936353</v>
+        <v>0.1008711625641787</v>
       </c>
       <c r="E109" t="n">
-        <v>49.24756612948985</v>
+        <v>41.85785793075459</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2818,19 +2818,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45323.76739583333</v>
+        <v>45342.76744212963</v>
       </c>
       <c r="B110" t="n">
-        <v>185.27</v>
+        <v>193</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.007185264410765058</v>
+        <v>-0.004784842077128815</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.06406672836164383</v>
+        <v>0.07973996163591722</v>
       </c>
       <c r="E110" t="n">
-        <v>51.49474789103578</v>
+        <v>48.79787929055109</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -2841,19 +2841,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45323.76810185185</v>
+        <v>45342.76814814815</v>
       </c>
       <c r="B111" t="n">
-        <v>184.99</v>
+        <v>192.92</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.02270925368296162</v>
+        <v>-0.01505047488385003</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.05579523342590739</v>
+        <v>0.06078187433196378</v>
       </c>
       <c r="E111" t="n">
-        <v>45.42933436197654</v>
+        <v>47.12673554105882</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -2864,19 +2864,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45323.76881944444</v>
+        <v>45342.76885416666</v>
       </c>
       <c r="B112" t="n">
-        <v>184.95</v>
+        <v>192.8</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.03780401161776581</v>
+        <v>-0.03249448377931685</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.05219698906427907</v>
+        <v>0.04212660270970765</v>
       </c>
       <c r="E112" t="n">
-        <v>44.62075795354468</v>
+        <v>44.65631071036623</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -2887,19 +2887,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45323.76952546297</v>
+        <v>45342.7695949074</v>
       </c>
       <c r="B113" t="n">
-        <v>185.06</v>
+        <v>192.69</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.040424645195003</v>
+        <v>-0.05456606358316662</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.04984252029042386</v>
+        <v>0.0227880694511328</v>
       </c>
       <c r="E113" t="n">
-        <v>47.3936941400318</v>
+        <v>42.45910247286344</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -2910,19 +2910,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45323.77023148148</v>
+        <v>45342.77030092593</v>
       </c>
       <c r="B114" t="n">
-        <v>184.9</v>
+        <v>192.78</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.05478070118630285</v>
+        <v>-0.06405728920057641</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.05083015646959966</v>
+        <v>0.00541899772079096</v>
       </c>
       <c r="E114" t="n">
-        <v>43.94676938201592</v>
+        <v>44.85003925348977</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -2933,19 +2933,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45323.7709375</v>
+        <v>45342.77100694444</v>
       </c>
       <c r="B115" t="n">
-        <v>185.12</v>
+        <v>192.58</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.04785418435685074</v>
+        <v>-0.08671785298400891</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.05023496204704988</v>
+        <v>-0.01300837242016901</v>
       </c>
       <c r="E115" t="n">
-        <v>49.3965469446757</v>
+        <v>40.79350920519831</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -2956,19 +2956,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45323.77164351852</v>
+        <v>45342.77172453704</v>
       </c>
       <c r="B116" t="n">
-        <v>185.3</v>
+        <v>192.39</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.0275231049679121</v>
+        <v>-0.1186403134640841</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.04569259063122232</v>
+        <v>-0.03413476062895204</v>
       </c>
       <c r="E116" t="n">
-        <v>53.38951857596206</v>
+        <v>37.33844308074077</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -2979,19 +2979,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45323.77234953704</v>
+        <v>45342.77243055555</v>
       </c>
       <c r="B117" t="n">
-        <v>185</v>
+        <v>192.16</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.03521216692851681</v>
+        <v>-0.1606463401825238</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.04359650589068122</v>
+        <v>-0.05943707653966639</v>
       </c>
       <c r="E117" t="n">
-        <v>46.7661206146076</v>
+        <v>33.62569498013779</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3002,19 +3002,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45323.77305555555</v>
+        <v>45342.77315972222</v>
       </c>
       <c r="B118" t="n">
-        <v>185.54</v>
+        <v>192.29</v>
       </c>
       <c r="C118" t="n">
-        <v>0.002241840560259334</v>
+        <v>-0.1813559469826487</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.03442883660049311</v>
+        <v>-0.08382085062826285</v>
       </c>
       <c r="E118" t="n">
-        <v>57.08612277375805</v>
+        <v>37.41376753058775</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3025,19 +3025,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45323.77376157408</v>
+        <v>45342.77386574074</v>
       </c>
       <c r="B119" t="n">
-        <v>185.55</v>
+        <v>192.04</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0323583211789753</v>
+        <v>-0.2154577079002991</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.02107140504459943</v>
+        <v>-0.1101482220826701</v>
       </c>
       <c r="E119" t="n">
-        <v>57.2513967686109</v>
+        <v>33.45906809502554</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3048,19 +3048,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45323.77447916667</v>
+        <v>45342.77457175926</v>
       </c>
       <c r="B120" t="n">
-        <v>185.73</v>
+        <v>191.98</v>
       </c>
       <c r="C120" t="n">
-        <v>0.06994407298930128</v>
+        <v>-0.2445065780449056</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.002868309437819287</v>
+        <v>-0.1370198932751172</v>
       </c>
       <c r="E120" t="n">
-        <v>60.22112339430485</v>
+        <v>32.56928093610834</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3071,19 +3071,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45323.77518518519</v>
+        <v>45342.77527777778</v>
       </c>
       <c r="B121" t="n">
-        <v>185.74</v>
+        <v>191.81</v>
       </c>
       <c r="C121" t="n">
-        <v>0.09939223668129671</v>
+        <v>-0.2780405181519825</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01758379978600392</v>
+        <v>-0.1652240182504903</v>
       </c>
       <c r="E121" t="n">
-        <v>60.38577194767294</v>
+        <v>30.12484078956547</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3094,19 +3094,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45323.7758912037</v>
+        <v>45342.77599537037</v>
       </c>
       <c r="B122" t="n">
-        <v>185.94</v>
+        <v>191.77</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1372859006943088</v>
+        <v>-0.304335878427878</v>
       </c>
       <c r="D122" t="n">
-        <v>0.04152421996766489</v>
+        <v>-0.1930463902859678</v>
       </c>
       <c r="E122" t="n">
-        <v>63.62829960601132</v>
+        <v>29.56261617478134</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3117,19 +3117,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45323.7766087963</v>
+        <v>45342.77670138889</v>
       </c>
       <c r="B123" t="n">
-        <v>185.84</v>
+        <v>192.08</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1574329491296567</v>
+        <v>-0.2967400965536626</v>
       </c>
       <c r="D123" t="n">
-        <v>0.06470596580006324</v>
+        <v>-0.2137851315395068</v>
       </c>
       <c r="E123" t="n">
-        <v>60.94229955186135</v>
+        <v>39.05564815064967</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3140,19 +3140,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45323.77731481481</v>
+        <v>45342.7774074074</v>
       </c>
       <c r="B124" t="n">
-        <v>185.79</v>
+        <v>192.22</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1674349620162729</v>
+        <v>-0.276239240708577</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08525176504330519</v>
+        <v>-0.2262759533733208</v>
       </c>
       <c r="E124" t="n">
-        <v>59.58783393115955</v>
+        <v>42.80463233214545</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3163,19 +3163,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45323.77802083334</v>
+        <v>45342.77811342593</v>
       </c>
       <c r="B125" t="n">
-        <v>185.96</v>
+        <v>192.17</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1869244597249633</v>
+        <v>-0.2610178950669422</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1055863039796368</v>
+        <v>-0.2332243417120451</v>
       </c>
       <c r="E125" t="n">
-        <v>62.62904747867837</v>
+        <v>41.81530041858074</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3186,19 +3186,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45323.77872685185</v>
+        <v>45342.77881944444</v>
       </c>
       <c r="B126" t="n">
-        <v>186.12</v>
+        <v>192.44</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2128273487021488</v>
+        <v>-0.2245793149195379</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1270345129241392</v>
+        <v>-0.2314953363535437</v>
       </c>
       <c r="E126" t="n">
-        <v>65.27755284775436</v>
+        <v>48.70925892033542</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45323.77944444444</v>
+        <v>45342.77952546296</v>
       </c>
       <c r="B127" t="n">
-        <v>186.15</v>
+        <v>192.26</v>
       </c>
       <c r="C127" t="n">
-        <v>0.233089414439803</v>
+        <v>-0.207830235716699</v>
       </c>
       <c r="D127" t="n">
-        <v>0.148245493227272</v>
+        <v>-0.2267623162261747</v>
       </c>
       <c r="E127" t="n">
-        <v>65.76743552263306</v>
+        <v>44.89061755427422</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3232,19 +3232,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45323.78016203704</v>
+        <v>45342.78023148148</v>
       </c>
       <c r="B128" t="n">
-        <v>186.15</v>
+        <v>192.2</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2463079626451758</v>
+        <v>-0.1971256268173818</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1678579871108528</v>
+        <v>-0.2208349783444162</v>
       </c>
       <c r="E128" t="n">
-        <v>65.76743552263306</v>
+        <v>43.66186877496843</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3255,19 +3255,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45323.78086805555</v>
+        <v>45342.7809375</v>
       </c>
       <c r="B129" t="n">
-        <v>186.21</v>
+        <v>192.45</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2586437714939223</v>
+        <v>-0.1665493591405607</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1860151439874667</v>
+        <v>-0.2099778545036451</v>
       </c>
       <c r="E129" t="n">
-        <v>66.85220090022388</v>
+        <v>49.82458201855962</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3278,19 +3278,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45323.78157407408</v>
+        <v>45342.78164351852</v>
       </c>
       <c r="B130" t="n">
-        <v>186.08</v>
+        <v>192.25</v>
       </c>
       <c r="C130" t="n">
-        <v>0.254990701258663</v>
+        <v>-0.1566500114263079</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1998102554417059</v>
+        <v>-0.1993122858881777</v>
       </c>
       <c r="E130" t="n">
-        <v>62.24953671562164</v>
+        <v>45.53342404117586</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3301,19 +3301,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45323.78228009259</v>
+        <v>45342.78234953704</v>
       </c>
       <c r="B131" t="n">
-        <v>186.07</v>
+        <v>192.5</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2484250114588633</v>
+        <v>-0.1271659069616078</v>
       </c>
       <c r="D131" t="n">
-        <v>0.2095332066451374</v>
+        <v>-0.1848830101028637</v>
       </c>
       <c r="E131" t="n">
-        <v>61.8965152529625</v>
+        <v>51.19210972272082</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3324,19 +3324,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45323.78298611111</v>
+        <v>45342.78305555556</v>
       </c>
       <c r="B132" t="n">
-        <v>185.99</v>
+        <v>192.31</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2340681318555085</v>
+        <v>-0.1177733361478204</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2144401916872117</v>
+        <v>-0.1714610753118551</v>
       </c>
       <c r="E132" t="n">
-        <v>59.01322093699088</v>
+        <v>47.18026471826668</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3347,19 +3347,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45323.78369212963</v>
+        <v>45342.78376157407</v>
       </c>
       <c r="B133" t="n">
-        <v>185.81</v>
+        <v>192.4</v>
       </c>
       <c r="C133" t="n">
-        <v>0.205793446902959</v>
+        <v>-0.1018928509102466</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2127108427303612</v>
+        <v>-0.1575474304315334</v>
       </c>
       <c r="E133" t="n">
-        <v>53.02781375447464</v>
+        <v>49.21069004561618</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3370,19 +3370,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45323.78439814815</v>
+        <v>45342.78447916666</v>
       </c>
       <c r="B134" t="n">
-        <v>185.8</v>
+        <v>192.5</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1804979706933523</v>
+        <v>-0.08031249522940698</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2062682683229594</v>
+        <v>-0.1421004433911081</v>
       </c>
       <c r="E134" t="n">
-        <v>52.7079736784049</v>
+        <v>51.44413213732327</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3393,19 +3393,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45323.78510416667</v>
+        <v>45342.78518518519</v>
       </c>
       <c r="B135" t="n">
-        <v>186.06</v>
+        <v>192.4</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1793633614614123</v>
+        <v>-0.07046677502103194</v>
       </c>
       <c r="D135" t="n">
-        <v>0.20088728695065</v>
+        <v>-0.1277737097170928</v>
       </c>
       <c r="E135" t="n">
-        <v>59.54085516583191</v>
+        <v>49.11803395124682</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3416,19 +3416,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45323.78582175926</v>
+        <v>45342.7858912037</v>
       </c>
       <c r="B136" t="n">
-        <v>186.12</v>
+        <v>192.23</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1812167204795685</v>
+        <v>-0.07551110505696101</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1969531736564337</v>
+        <v>-0.1173211887850665</v>
       </c>
       <c r="E136" t="n">
-        <v>60.94326355942672</v>
+        <v>45.36289058119278</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3439,19 +3439,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45323.78652777777</v>
+        <v>45342.78659722222</v>
       </c>
       <c r="B137" t="n">
-        <v>186.16</v>
+        <v>192.2</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1837945177675238</v>
+        <v>-0.08099585246336005</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1943214424786517</v>
+        <v>-0.1100561215207252</v>
       </c>
       <c r="E137" t="n">
-        <v>61.89162024897307</v>
+        <v>44.71324166015918</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3462,19 +3462,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45323.7872337963</v>
+        <v>45342.78730324074</v>
       </c>
       <c r="B138" t="n">
-        <v>186.2</v>
+        <v>192.2</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1869105182892099</v>
+        <v>-0.08436998957702713</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1928392576407634</v>
+        <v>-0.1049188951319856</v>
       </c>
       <c r="E138" t="n">
-        <v>62.86273458584945</v>
+        <v>44.71324166015918</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3485,19 +3485,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45323.78793981481</v>
+        <v>45342.78800925926</v>
       </c>
       <c r="B139" t="n">
-        <v>186.08</v>
+        <v>192.09</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1776491452701521</v>
+        <v>-0.09482699170794717</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1898012351666411</v>
+        <v>-0.1029005144471779</v>
       </c>
       <c r="E139" t="n">
-        <v>58.0809548512923</v>
+        <v>42.14651028621503</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3508,19 +3508,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45323.78866898148</v>
+        <v>45342.78871527778</v>
       </c>
       <c r="B140" t="n">
-        <v>185.92</v>
+        <v>192.05</v>
       </c>
       <c r="C140" t="n">
-        <v>0.155605059340445</v>
+        <v>-0.105130033358023</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1829620000014019</v>
+        <v>-0.1033464182293469</v>
       </c>
       <c r="E140" t="n">
-        <v>52.36177115403838</v>
+        <v>41.21988733641215</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3531,19 +3531,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45323.789375</v>
+        <v>45342.78942129629</v>
       </c>
       <c r="B141" t="n">
-        <v>185.78</v>
+        <v>191.97</v>
       </c>
       <c r="C141" t="n">
-        <v>0.125392683648073</v>
+        <v>-0.1183859203105442</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1714481367307361</v>
+        <v>-0.1063543186455864</v>
       </c>
       <c r="E141" t="n">
-        <v>47.91575186876697</v>
+        <v>39.35621550856241</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3554,19 +3554,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45323.79008101852</v>
+        <v>45342.79012731482</v>
       </c>
       <c r="B142" t="n">
-        <v>185.97</v>
+        <v>191.93</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1154497376366805</v>
+        <v>-0.1306133426202223</v>
       </c>
       <c r="D142" t="n">
-        <v>0.160248456911925</v>
+        <v>-0.1112061234405136</v>
       </c>
       <c r="E142" t="n">
-        <v>53.66576998309754</v>
+        <v>38.42084380807826</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3577,19 +3577,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45323.79078703704</v>
+        <v>45342.79083333333</v>
       </c>
       <c r="B143" t="n">
-        <v>185.77</v>
+        <v>191.72</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0903895977401703</v>
+        <v>-0.1554568975053883</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1462766850775741</v>
+        <v>-0.1200562782534885</v>
       </c>
       <c r="E143" t="n">
-        <v>47.69663216102923</v>
+        <v>33.86964758062244</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3600,19 +3600,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45323.79149305556</v>
+        <v>45342.79153935185</v>
       </c>
       <c r="B144" t="n">
-        <v>185.64</v>
+        <v>191.48</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0593551337444751</v>
+        <v>-0.1922949317030884</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1288923748109543</v>
+        <v>-0.1345040089434085</v>
       </c>
       <c r="E144" t="n">
-        <v>44.25124687995257</v>
+        <v>29.56001762669105</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3623,19 +3623,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45323.79219907407</v>
+        <v>45342.79224537037</v>
       </c>
       <c r="B145" t="n">
-        <v>185.57</v>
+        <v>190.95</v>
       </c>
       <c r="C145" t="n">
-        <v>0.02877992538606122</v>
+        <v>-0.2612444464539578</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1088698849259757</v>
+        <v>-0.1598520964455184</v>
       </c>
       <c r="E145" t="n">
-        <v>42.47217320369722</v>
+        <v>22.69297128523344</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3646,19 +3646,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45323.7929050926</v>
+        <v>45342.79295138889</v>
       </c>
       <c r="B146" t="n">
-        <v>185.9</v>
+        <v>190.86</v>
       </c>
       <c r="C146" t="n">
-        <v>0.03082180002962787</v>
+        <v>-0.3194670640342281</v>
       </c>
       <c r="D146" t="n">
-        <v>0.09326026794670611</v>
+        <v>-0.1917750899632603</v>
       </c>
       <c r="E146" t="n">
-        <v>52.2238659490809</v>
+        <v>21.76819020467438</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3669,19 +3669,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45323.79361111111</v>
+        <v>45342.7936574074</v>
       </c>
       <c r="B147" t="n">
-        <v>186.1</v>
+        <v>190.72</v>
       </c>
       <c r="C147" t="n">
-        <v>0.04802472973580052</v>
+        <v>-0.3726105158246469</v>
       </c>
       <c r="D147" t="n">
-        <v>0.084213160304525</v>
+        <v>-0.2279421751355376</v>
       </c>
       <c r="E147" t="n">
-        <v>56.98314762605561</v>
+        <v>20.37708540830378</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3692,19 +3692,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45323.79431712963</v>
+        <v>45342.79436342593</v>
       </c>
       <c r="B148" t="n">
-        <v>186.17</v>
+        <v>190.51</v>
       </c>
       <c r="C148" t="n">
-        <v>0.06653956378210069</v>
+        <v>-0.4267529864202686</v>
       </c>
       <c r="D148" t="n">
-        <v>0.08067844100004014</v>
+        <v>-0.2677043373924838</v>
       </c>
       <c r="E148" t="n">
-        <v>58.53987906695316</v>
+        <v>18.47035732065081</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3715,19 +3715,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45323.79502314814</v>
+        <v>45342.79506944444</v>
       </c>
       <c r="B149" t="n">
-        <v>186.55</v>
+        <v>190.41</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1106005925786917</v>
+        <v>-0.4722862270701853</v>
       </c>
       <c r="D149" t="n">
-        <v>0.08666287131577047</v>
+        <v>-0.3086207153280242</v>
       </c>
       <c r="E149" t="n">
-        <v>65.7797178274879</v>
+        <v>17.62462677591083</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3738,19 +3738,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45323.79572916667</v>
+        <v>45342.79577546296</v>
       </c>
       <c r="B150" t="n">
-        <v>186.7</v>
+        <v>190.57</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1558267479881863</v>
+        <v>-0.4898147064731688</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1004956466502537</v>
+        <v>-0.3448595135570531</v>
       </c>
       <c r="E150" t="n">
-        <v>68.14441869099224</v>
+        <v>23.64854030603111</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3761,19 +3761,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45323.79643518518</v>
+        <v>45342.79648148148</v>
       </c>
       <c r="B151" t="n">
-        <v>186.88</v>
+        <v>190.25</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2038435164944019</v>
+        <v>-0.5234929771567067</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1211652206190833</v>
+        <v>-0.3805862062769839</v>
       </c>
       <c r="E151" t="n">
-        <v>70.75595460382847</v>
+        <v>20.43060543816205</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3784,19 +3784,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45323.7971412037</v>
+        <v>45342.7971875</v>
       </c>
       <c r="B152" t="n">
-        <v>187</v>
+        <v>190.33</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2487131383554129</v>
+        <v>-0.5375315883514133</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1466748041663492</v>
+        <v>-0.4119752826918698</v>
       </c>
       <c r="E152" t="n">
-        <v>72.3815172414851</v>
+        <v>23.24262112004406</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -3807,19 +3807,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45323.79784722222</v>
+        <v>45342.79789351852</v>
       </c>
       <c r="B153" t="n">
-        <v>187.07</v>
+        <v>190.2</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2866171083222468</v>
+        <v>-0.5527751545199067</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1746632649975287</v>
+        <v>-0.4401352570574772</v>
       </c>
       <c r="E153" t="n">
-        <v>73.31339939097938</v>
+        <v>21.88888688992189</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -3830,19 +3830,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45323.79855324074</v>
+        <v>45342.79859953704</v>
       </c>
       <c r="B154" t="n">
-        <v>187.14</v>
+        <v>190.13</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3186317046401541</v>
+        <v>-0.5640027330904047</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2034569529260538</v>
+        <v>-0.4649087522640627</v>
       </c>
       <c r="E154" t="n">
-        <v>74.24910282682022</v>
+        <v>21.17375592805438</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -3853,19 +3853,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45323.79925925926</v>
+        <v>45342.79930555556</v>
       </c>
       <c r="B155" t="n">
-        <v>187.11</v>
+        <v>190.3</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3376900726426015</v>
+        <v>-0.5528106338725536</v>
       </c>
       <c r="D155" t="n">
-        <v>0.2303035768693634</v>
+        <v>-0.4824891285857609</v>
       </c>
       <c r="E155" t="n">
-        <v>73.06668151292286</v>
+        <v>27.3790108679503</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -3876,19 +3876,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45323.79996527778</v>
+        <v>45342.80001157407</v>
       </c>
       <c r="B156" t="n">
-        <v>186.94</v>
+        <v>189.87</v>
       </c>
       <c r="C156" t="n">
-        <v>0.3352122689676946</v>
+        <v>-0.572044053187625</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2512853152890296</v>
+        <v>-0.5004001135061338</v>
       </c>
       <c r="E156" t="n">
-        <v>66.5947572078681</v>
+        <v>22.54467342464795</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -3899,19 +3899,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45323.8006712963</v>
+        <v>45342.80072916667</v>
       </c>
       <c r="B157" t="n">
-        <v>186.78</v>
+        <v>190.01</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3166873541914583</v>
+        <v>-0.56942585973718</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2643657230695154</v>
+        <v>-0.514205262752343</v>
       </c>
       <c r="E157" t="n">
-        <v>61.1085550670027</v>
+        <v>27.06039226789346</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -3922,19 +3922,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45323.80140046297</v>
+        <v>45342.80144675926</v>
       </c>
       <c r="B158" t="n">
-        <v>186.78</v>
+        <v>190.13</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2985645593759614</v>
+        <v>-0.5513127354128926</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2712054903308046</v>
+        <v>-0.521626757284453</v>
       </c>
       <c r="E158" t="n">
-        <v>61.1085550670027</v>
+        <v>30.78527004747671</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -3945,19 +3945,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45323.80210648148</v>
+        <v>45342.80216435185</v>
       </c>
       <c r="B159" t="n">
-        <v>186.72</v>
+        <v>189.9</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2761770186016861</v>
+        <v>-0.549186353273825</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2721997959849809</v>
+        <v>-0.5271386764823274</v>
       </c>
       <c r="E159" t="n">
-        <v>58.99484007371816</v>
+        <v>27.84965138218112</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -3968,19 +3968,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45323.8028125</v>
+        <v>45342.80287037037</v>
       </c>
       <c r="B160" t="n">
-        <v>186.89</v>
+        <v>189.69</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2690508596634231</v>
+        <v>-0.5580139871731262</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2715700087206693</v>
+        <v>-0.5333137386204871</v>
       </c>
       <c r="E160" t="n">
-        <v>62.90946262049967</v>
+        <v>25.46222913286243</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -3991,19 +3991,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45323.80351851852</v>
+        <v>45342.80357638889</v>
       </c>
       <c r="B161" t="n">
-        <v>186.71</v>
+        <v>189.74</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2460426056843232</v>
+        <v>-0.5545824868130751</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2664645281134001</v>
+        <v>-0.5375674882590048</v>
       </c>
       <c r="E161" t="n">
-        <v>56.73356965962791</v>
+        <v>27.06539515984251</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4014,42 +4014,42 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45323.80422453704</v>
+        <v>45342.80429398148</v>
       </c>
       <c r="B162" t="n">
-        <v>186.72</v>
+        <v>189.9</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2260100123310735</v>
+        <v>-0.5328104282767185</v>
       </c>
       <c r="D162" t="n">
-        <v>0.2583736249569348</v>
+        <v>-0.5366160762625476</v>
       </c>
       <c r="E162" t="n">
-        <v>56.98621056437486</v>
+        <v>32.0982858734275</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>NO SE REALIZA OPERACION</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45323.80494212963</v>
+        <v>45342.805</v>
       </c>
       <c r="B163" t="n">
-        <v>186.78</v>
+        <v>189.7</v>
       </c>
       <c r="C163" t="n">
-        <v>0.212525672668761</v>
+        <v>-0.5256350498988809</v>
       </c>
       <c r="D163" t="n">
-        <v>0.2492040344993</v>
+        <v>-0.5344198709898142</v>
       </c>
       <c r="E163" t="n">
-        <v>58.55012074185825</v>
+        <v>29.37004233865063</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4060,19 +4060,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45323.80565972222</v>
+        <v>45342.80570601852</v>
       </c>
       <c r="B164" t="n">
-        <v>186.65</v>
+        <v>189.26</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1891687037291092</v>
+        <v>-0.5491228867835218</v>
       </c>
       <c r="D164" t="n">
-        <v>0.2371969683452619</v>
+        <v>-0.5373604741485558</v>
       </c>
       <c r="E164" t="n">
-        <v>53.97139598077185</v>
+        <v>24.44699377227229</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4083,19 +4083,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45323.80641203704</v>
+        <v>45342.80642361111</v>
       </c>
       <c r="B165" t="n">
-        <v>186.58</v>
+        <v>189.71</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1631292699019866</v>
+        <v>-0.525369791615816</v>
       </c>
       <c r="D165" t="n">
-        <v>0.2223834286566068</v>
+        <v>-0.5349623376420078</v>
       </c>
       <c r="E165" t="n">
-        <v>51.63008576385538</v>
+        <v>36.22162966208157</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4106,19 +4106,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45323.80715277778</v>
+        <v>45342.80712962963</v>
       </c>
       <c r="B166" t="n">
-        <v>186.73</v>
+        <v>189.63</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1528347930300242</v>
+        <v>-0.5071544630187361</v>
       </c>
       <c r="D166" t="n">
-        <v>0.2084737015312904</v>
+        <v>-0.5294007627173536</v>
       </c>
       <c r="E166" t="n">
-        <v>56.03170836503331</v>
+        <v>35.17219039846327</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4129,19 +4129,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45323.80787037037</v>
+        <v>45342.80783564815</v>
       </c>
       <c r="B167" t="n">
-        <v>186.78</v>
+        <v>189.27</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1470162166428395</v>
+        <v>-0.5158216048527322</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1961822045536002</v>
+        <v>-0.5266849311444293</v>
       </c>
       <c r="E167" t="n">
-        <v>57.42255892878387</v>
+        <v>30.84180712200741</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4152,19 +4152,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45323.80857638889</v>
+        <v>45342.80856481481</v>
       </c>
       <c r="B168" t="n">
-        <v>186.62</v>
+        <v>189.38</v>
       </c>
       <c r="C168" t="n">
-        <v>0.1280185717053826</v>
+        <v>-0.5079588629294562</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1825494779839567</v>
+        <v>-0.5229397175014348</v>
       </c>
       <c r="E168" t="n">
-        <v>51.77810781036588</v>
+        <v>33.5345669990614</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4175,19 +4175,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45323.80929398148</v>
+        <v>45342.8092824074</v>
       </c>
       <c r="B169" t="n">
-        <v>186.82</v>
+        <v>189.31</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1276298918061514</v>
+        <v>-0.5015939356342471</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1715655607483956</v>
+        <v>-0.5186705611279973</v>
       </c>
       <c r="E169" t="n">
-        <v>57.41328999159857</v>
+        <v>32.66300132456568</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4198,19 +4198,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45323.81</v>
+        <v>45342.80998842593</v>
       </c>
       <c r="B170" t="n">
-        <v>186.93</v>
+        <v>189.36</v>
       </c>
       <c r="C170" t="n">
-        <v>0.1346458275910152</v>
+        <v>-0.486902395039607</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1641816141169195</v>
+        <v>-0.5123169279103192</v>
       </c>
       <c r="E170" t="n">
-        <v>60.17017994338547</v>
+        <v>33.98284014724823</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4221,19 +4221,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45323.81070601852</v>
+        <v>45342.81069444444</v>
       </c>
       <c r="B171" t="n">
-        <v>186.56</v>
+        <v>189.38</v>
       </c>
       <c r="C171" t="n">
-        <v>0.1090925484755303</v>
+        <v>-0.4682477419236761</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1531638009886417</v>
+        <v>-0.5035030907129907</v>
       </c>
       <c r="E171" t="n">
-        <v>48.7406071668449</v>
+        <v>34.5355754114881</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4244,19 +4244,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45323.81141203704</v>
+        <v>45342.81140046296</v>
       </c>
       <c r="B172" t="n">
-        <v>186.65</v>
+        <v>189.42</v>
       </c>
       <c r="C172" t="n">
-        <v>0.09500844035400746</v>
+        <v>-0.4451052331642131</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1415327288617149</v>
+        <v>-0.4918235192032352</v>
       </c>
       <c r="E172" t="n">
-        <v>51.17033644894359</v>
+        <v>35.6952026022455</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4267,19 +4267,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45323.81211805555</v>
+        <v>45342.81210648148</v>
       </c>
       <c r="B173" t="n">
-        <v>186.65</v>
+        <v>189.85</v>
       </c>
       <c r="C173" t="n">
-        <v>0.08289116543994623</v>
+        <v>-0.3875992193707702</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1298044161773611</v>
+        <v>-0.4709786592367423</v>
       </c>
       <c r="E173" t="n">
-        <v>51.17033644894359</v>
+        <v>46.63820747722279</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4290,19 +4290,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45323.81282407408</v>
+        <v>45342.8128125</v>
       </c>
       <c r="B174" t="n">
-        <v>186.62</v>
+        <v>190.34</v>
       </c>
       <c r="C174" t="n">
-        <v>0.07005978292394843</v>
+        <v>-0.2990392459500129</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1178554895266786</v>
+        <v>-0.4365907765793964</v>
       </c>
       <c r="E174" t="n">
-        <v>50.2495379248297</v>
+        <v>55.85688288074049</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4313,19 +4313,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45323.81353009259</v>
+        <v>45342.81351851852</v>
       </c>
       <c r="B175" t="n">
-        <v>186.89</v>
+        <v>190.38</v>
       </c>
       <c r="C175" t="n">
-        <v>0.08074676490795696</v>
+        <v>-0.2230559135439876</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1104337446029343</v>
+        <v>-0.3938838039723147</v>
       </c>
       <c r="E175" t="n">
-        <v>57.63794121991969</v>
+        <v>56.51727736518487</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4336,19 +4336,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45323.81425925926</v>
+        <v>45342.81422453704</v>
       </c>
       <c r="B176" t="n">
-        <v>186.83</v>
+        <v>190.32</v>
       </c>
       <c r="C176" t="n">
-        <v>0.08341324065150957</v>
+        <v>-0.1657691897097209</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1050296438126494</v>
+        <v>-0.3482608811197959</v>
       </c>
       <c r="E176" t="n">
-        <v>55.65975604567481</v>
+        <v>55.1836730663368</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4359,19 +4359,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45323.815</v>
+        <v>45342.81493055556</v>
       </c>
       <c r="B177" t="n">
-        <v>186.84</v>
+        <v>190.56</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0853495023804669</v>
+        <v>-0.09985202215054301</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1010936155262129</v>
+        <v>-0.2985791093259453</v>
       </c>
       <c r="E177" t="n">
-        <v>55.93122669242351</v>
+        <v>59.31875971526711</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4382,19 +4382,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45323.81570601852</v>
+        <v>45342.81563657407</v>
       </c>
       <c r="B178" t="n">
-        <v>186.9</v>
+        <v>190.42</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0906801974401219</v>
+        <v>-0.05823769403838241</v>
       </c>
       <c r="D178" t="n">
-        <v>0.09901093190899468</v>
+        <v>-0.2505108262684327</v>
       </c>
       <c r="E178" t="n">
-        <v>57.60826106897839</v>
+        <v>56.06884869453186</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4405,19 +4405,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45323.81641203703</v>
+        <v>45342.8163425926</v>
       </c>
       <c r="B179" t="n">
-        <v>186.89</v>
+        <v>190.19</v>
       </c>
       <c r="C179" t="n">
-        <v>0.09302555456730488</v>
+        <v>-0.04331777663952607</v>
       </c>
       <c r="D179" t="n">
-        <v>0.09781385644065674</v>
+        <v>-0.2090722163426514</v>
       </c>
       <c r="E179" t="n">
-        <v>57.21744456644963</v>
+        <v>51.11427702685759</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4428,19 +4428,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45323.81711805556</v>
+        <v>45342.81704861111</v>
       </c>
       <c r="B180" t="n">
-        <v>186.7</v>
+        <v>190.31</v>
       </c>
       <c r="C180" t="n">
-        <v>0.07864626964337162</v>
+        <v>-0.02156208321716235</v>
       </c>
       <c r="D180" t="n">
-        <v>0.09398033908119972</v>
+        <v>-0.1715701897175536</v>
       </c>
       <c r="E180" t="n">
-        <v>50.24310789922094</v>
+        <v>53.42666097048078</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4451,19 +4451,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45323.81783564815</v>
+        <v>45342.81775462963</v>
       </c>
       <c r="B181" t="n">
-        <v>186.63</v>
+        <v>189.87</v>
       </c>
       <c r="C181" t="n">
-        <v>0.06090014875263705</v>
+        <v>-0.0393710176216473</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0873643010154872</v>
+        <v>-0.1451303552983724</v>
       </c>
       <c r="E181" t="n">
-        <v>47.92534594693782</v>
+        <v>45.01810814872261</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4474,19 +4474,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45323.81854166667</v>
+        <v>45342.81846064814</v>
       </c>
       <c r="B182" t="n">
-        <v>186.45</v>
+        <v>189.66</v>
       </c>
       <c r="C182" t="n">
-        <v>0.03194349963592913</v>
+        <v>-0.06962735064377057</v>
       </c>
       <c r="D182" t="n">
-        <v>0.07628014073957559</v>
+        <v>-0.130029754367452</v>
       </c>
       <c r="E182" t="n">
-        <v>42.49653184341684</v>
+        <v>41.64897020147615</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4497,19 +4497,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45323.81924768518</v>
+        <v>45342.81916666667</v>
       </c>
       <c r="B183" t="n">
-        <v>186.2</v>
+        <v>189.53</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.01105038214649312</v>
+        <v>-0.1029093511523058</v>
       </c>
       <c r="D183" t="n">
-        <v>0.05881403616236185</v>
+        <v>-0.1246056737244228</v>
       </c>
       <c r="E183" t="n">
-        <v>36.3395066824428</v>
+        <v>39.66972550700839</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4520,19 +4520,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45323.81997685185</v>
+        <v>45342.81987268518</v>
       </c>
       <c r="B184" t="n">
-        <v>186.1</v>
+        <v>189.63</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.05258632505697847</v>
+        <v>-0.1198350284606704</v>
       </c>
       <c r="D184" t="n">
-        <v>0.03653396391849379</v>
+        <v>-0.1236515446716723</v>
       </c>
       <c r="E184" t="n">
-        <v>34.20474929061041</v>
+        <v>41.95481266710395</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4543,19 +4543,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45323.82068287037</v>
+        <v>45342.82060185185</v>
       </c>
       <c r="B185" t="n">
-        <v>186.21</v>
+        <v>189.87</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.07575452733661336</v>
+        <v>-0.1125849462554243</v>
       </c>
       <c r="D185" t="n">
-        <v>0.01407626566747236</v>
+        <v>-0.1214382249884227</v>
       </c>
       <c r="E185" t="n">
-        <v>38.48554080834921</v>
+        <v>47.13050612867473</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4566,19 +4566,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45323.82138888889</v>
+        <v>45342.82130787037</v>
       </c>
       <c r="B186" t="n">
-        <v>186.38</v>
+        <v>190.04</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.07948169975128394</v>
+        <v>-0.09206040952764738</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.0046353274162789</v>
+        <v>-0.1155626618962677</v>
       </c>
       <c r="E186" t="n">
-        <v>44.4958386723604</v>
+        <v>50.49756895518972</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4589,19 +4589,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45323.82209490741</v>
+        <v>45342.82201388889</v>
       </c>
       <c r="B187" t="n">
-        <v>186.23</v>
+        <v>190.12</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.09346188668871491</v>
+        <v>-0.06854904417650687</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.0224006392707661</v>
+        <v>-0.1061599383523155</v>
       </c>
       <c r="E187" t="n">
-        <v>40.71570015698243</v>
+        <v>52.04532589537027</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4612,19 +4612,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45323.82280092593</v>
+        <v>45342.82271990741</v>
       </c>
       <c r="B188" t="n">
-        <v>186.5</v>
+        <v>190.14</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.08181147033837988</v>
+        <v>-0.04775183150337625</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.03428280548428886</v>
+        <v>-0.09447831698252766</v>
       </c>
       <c r="E188" t="n">
-        <v>49.09828438268521</v>
+        <v>52.44563120092477</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4635,19 +4635,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45323.82350694444</v>
+        <v>45342.82342592593</v>
       </c>
       <c r="B189" t="n">
-        <v>186.81</v>
+        <v>190.29</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.04702198208283903</v>
+        <v>-0.01894772662839728</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.03683064080399889</v>
+        <v>-0.07937219891170159</v>
       </c>
       <c r="E189" t="n">
-        <v>56.6731949347747</v>
+        <v>55.44935726500532</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4658,19 +4658,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45323.82421296297</v>
+        <v>45342.82413194444</v>
       </c>
       <c r="B190" t="n">
-        <v>187.03</v>
+        <v>190.05</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.001679539921553896</v>
+        <v>-0.01530977863086491</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.0298004206275099</v>
+        <v>-0.06655971485553426</v>
       </c>
       <c r="E190" t="n">
-        <v>61.09771226652016</v>
+        <v>50.00679294045117</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4681,19 +4681,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45323.82491898148</v>
+        <v>45342.82483796297</v>
       </c>
       <c r="B191" t="n">
-        <v>187.25</v>
+        <v>190.12</v>
       </c>
       <c r="C191" t="n">
-        <v>0.05141416308137536</v>
+        <v>-0.00670101847745741</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.01355750388573284</v>
+        <v>-0.05458797557991889</v>
       </c>
       <c r="E191" t="n">
-        <v>64.952104152666</v>
+        <v>51.50200342712143</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4704,19 +4704,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45323.825625</v>
+        <v>45342.82554398148</v>
       </c>
       <c r="B192" t="n">
-        <v>187.48</v>
+        <v>189.74</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1107734555984337</v>
+        <v>-0.03019328880196781</v>
       </c>
       <c r="D192" t="n">
-        <v>0.01130868801110046</v>
+        <v>-0.04970903822432868</v>
       </c>
       <c r="E192" t="n">
-        <v>68.46935556279787</v>
+        <v>43.83714949276882</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4727,19 +4727,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45323.82634259259</v>
+        <v>45342.82626157408</v>
       </c>
       <c r="B193" t="n">
-        <v>187.61</v>
+        <v>189.57</v>
       </c>
       <c r="C193" t="n">
-        <v>0.1663880186177948</v>
+        <v>-0.06181608419805684</v>
       </c>
       <c r="D193" t="n">
-        <v>0.04232455413243934</v>
+        <v>-0.05213044741907432</v>
       </c>
       <c r="E193" t="n">
-        <v>70.28455323791182</v>
+        <v>40.90424356339521</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -4750,19 +4750,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45323.82704861111</v>
+        <v>45342.82696759259</v>
       </c>
       <c r="B194" t="n">
-        <v>187.72</v>
+        <v>189.24</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2168394509706104</v>
+        <v>-0.1122121081214971</v>
       </c>
       <c r="D194" t="n">
-        <v>0.07722753350007355</v>
+        <v>-0.06414677955955887</v>
       </c>
       <c r="E194" t="n">
-        <v>71.76571304996298</v>
+        <v>35.88520066078205</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -4773,19 +4773,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45323.82775462963</v>
+        <v>45342.82767361111</v>
       </c>
       <c r="B195" t="n">
-        <v>187.51</v>
+        <v>189.75</v>
       </c>
       <c r="C195" t="n">
-        <v>0.2371436848542317</v>
+        <v>-0.109733641302256</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1092107637709052</v>
+        <v>-0.07326415190809832</v>
       </c>
       <c r="E195" t="n">
-        <v>65.09491193672849</v>
+        <v>46.758134094092</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -4796,19 +4796,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45323.82846064815</v>
+        <v>45342.82837962963</v>
       </c>
       <c r="B196" t="n">
-        <v>187.64</v>
+        <v>189.93</v>
       </c>
       <c r="C196" t="n">
-        <v>0.2607194386393701</v>
+        <v>-0.09218232238350765</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1395124987445982</v>
+        <v>-0.07704778600318019</v>
       </c>
       <c r="E196" t="n">
-        <v>67.13170499208144</v>
+        <v>49.98217300193372</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -4819,19 +4819,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45323.82916666667</v>
+        <v>45342.82908564815</v>
       </c>
       <c r="B197" t="n">
-        <v>187.66</v>
+        <v>189.9</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2778147507087851</v>
+        <v>-0.07977394063937027</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1671729491374356</v>
+        <v>-0.0775930169304182</v>
       </c>
       <c r="E197" t="n">
-        <v>67.44642774893711</v>
+        <v>49.4447691273011</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -4842,19 +4842,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45323.82987268519</v>
+        <v>45342.82979166666</v>
       </c>
       <c r="B198" t="n">
-        <v>187.74</v>
+        <v>189.86</v>
       </c>
       <c r="C198" t="n">
-        <v>0.294424300042806</v>
+        <v>-0.07233405248496183</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1926232193185096</v>
+        <v>-0.07654122404132693</v>
       </c>
       <c r="E198" t="n">
-        <v>68.73598433797684</v>
+        <v>48.6930151278082</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -4865,19 +4865,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45323.8305787037</v>
+        <v>45342.83049768519</v>
       </c>
       <c r="B199" t="n">
-        <v>187.95</v>
+        <v>189.78</v>
       </c>
       <c r="C199" t="n">
-        <v>0.320834353794055</v>
+        <v>-0.07206252697955051</v>
       </c>
       <c r="D199" t="n">
-        <v>0.2182654462136187</v>
+        <v>-0.07564548462897165</v>
       </c>
       <c r="E199" t="n">
-        <v>71.8844719438527</v>
+        <v>47.14903095484191</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -4888,19 +4888,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45323.83128472222</v>
+        <v>45342.8312037037</v>
       </c>
       <c r="B200" t="n">
-        <v>187.91</v>
+        <v>189.7</v>
       </c>
       <c r="C200" t="n">
-        <v>0.3346788762054587</v>
+        <v>-0.07741033432455424</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2415481322119867</v>
+        <v>-0.07599845456808818</v>
       </c>
       <c r="E200" t="n">
-        <v>70.42955712989712</v>
+        <v>45.59216550561221</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -4911,19 +4911,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45323.83200231481</v>
+        <v>45342.8319212963</v>
       </c>
       <c r="B201" t="n">
-        <v>187.72</v>
+        <v>189.84</v>
       </c>
       <c r="C201" t="n">
-        <v>0.3265550248046907</v>
+        <v>-0.06954995165384048</v>
       </c>
       <c r="D201" t="n">
-        <v>0.2585495107305276</v>
+        <v>-0.07470875398523864</v>
       </c>
       <c r="E201" t="n">
-        <v>63.82185861336421</v>
+        <v>48.77961892471313</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -4934,19 +4934,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45323.83270833334</v>
+        <v>45342.83262731481</v>
       </c>
       <c r="B202" t="n">
-        <v>187.53</v>
+        <v>189.97</v>
       </c>
       <c r="C202" t="n">
-        <v>0.3013120640228237</v>
+        <v>-0.05222856977047741</v>
       </c>
       <c r="D202" t="n">
-        <v>0.2671020213889868</v>
+        <v>-0.0702127171422864</v>
       </c>
       <c r="E202" t="n">
-        <v>57.96523215628626</v>
+        <v>51.61427058981607</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -4957,19 +4957,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45323.83341435185</v>
+        <v>45342.83333333334</v>
       </c>
       <c r="B203" t="n">
-        <v>187.53</v>
+        <v>189.75</v>
       </c>
       <c r="C203" t="n">
-        <v>0.2781010598316414</v>
+        <v>-0.05561234670207682</v>
       </c>
       <c r="D203" t="n">
-        <v>0.2693018290775178</v>
+        <v>-0.06729264305424448</v>
       </c>
       <c r="E203" t="n">
-        <v>57.96523215628626</v>
+        <v>46.88538910713464</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -4980,19 +4980,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45323.83412037037</v>
+        <v>45342.83403935185</v>
       </c>
       <c r="B204" t="n">
-        <v>187.36</v>
+        <v>189.79</v>
       </c>
       <c r="C204" t="n">
-        <v>0.2431853037293763</v>
+        <v>-0.05443881185701116</v>
       </c>
       <c r="D204" t="n">
-        <v>0.2640785240078894</v>
+        <v>-0.06472187681479782</v>
       </c>
       <c r="E204" t="n">
-        <v>52.92549704967694</v>
+        <v>47.82144689593998</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5003,19 +5003,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45323.83482638889</v>
+        <v>45342.83475694444</v>
       </c>
       <c r="B205" t="n">
-        <v>187.34</v>
+        <v>189.72</v>
       </c>
       <c r="C205" t="n">
-        <v>0.211462870273408</v>
+        <v>-0.05848303598855864</v>
       </c>
       <c r="D205" t="n">
-        <v>0.2535553932609932</v>
+        <v>-0.06347410864955</v>
       </c>
       <c r="E205" t="n">
-        <v>52.348846113463</v>
+        <v>46.28419819833783</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -5026,19 +5026,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45323.83553240741</v>
+        <v>45342.83547453704</v>
       </c>
       <c r="B206" t="n">
-        <v>187.03</v>
+        <v>189.72</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1594699338589294</v>
+        <v>-0.06098511431397924</v>
       </c>
       <c r="D206" t="n">
-        <v>0.2347383013805804</v>
+        <v>-0.06297630978243585</v>
       </c>
       <c r="E206" t="n">
-        <v>44.29318248959109</v>
+        <v>46.28419819833783</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -5049,19 +5049,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45323.83625</v>
+        <v>45342.83619212963</v>
       </c>
       <c r="B207" t="n">
-        <v>187.11</v>
+        <v>189.9</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1232991724645558</v>
+        <v>-0.0478914706736191</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2124504755973755</v>
+        <v>-0.0599593419606725</v>
       </c>
       <c r="E207" t="n">
-        <v>46.57787796509537</v>
+        <v>50.98324539243274</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -5072,19 +5072,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45323.83695601852</v>
+        <v>45342.83689814815</v>
       </c>
       <c r="B208" t="n">
-        <v>186.84</v>
+        <v>189.85</v>
       </c>
       <c r="C208" t="n">
-        <v>0.07201667652921628</v>
+        <v>-0.04107575020699983</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1843637157837437</v>
+        <v>-0.05618262360993797</v>
       </c>
       <c r="E208" t="n">
-        <v>40.53542637758993</v>
+        <v>49.6830804784375</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5095,19 +5095,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45323.83766203704</v>
+        <v>45342.83760416666</v>
       </c>
       <c r="B209" t="n">
-        <v>186.93</v>
+        <v>190.06</v>
       </c>
       <c r="C209" t="n">
-        <v>0.03819686716073534</v>
+        <v>-0.01851556180483271</v>
       </c>
       <c r="D209" t="n">
-        <v>0.155130346059142</v>
+        <v>-0.04864921124891692</v>
       </c>
       <c r="E209" t="n">
-        <v>43.18141122169686</v>
+        <v>54.88674297722837</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5118,19 +5118,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45323.83836805556</v>
+        <v>45342.83831018519</v>
       </c>
       <c r="B210" t="n">
-        <v>186.83</v>
+        <v>190.11</v>
       </c>
       <c r="C210" t="n">
-        <v>0.003287365608116488</v>
+        <v>0.003359407020866456</v>
       </c>
       <c r="D210" t="n">
-        <v>0.1247617499689369</v>
+        <v>-0.03824748759496024</v>
       </c>
       <c r="E210" t="n">
-        <v>40.99848515281979</v>
+        <v>56.05212509222394</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5141,19 +5141,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45323.83907407407</v>
+        <v>45342.8390162037</v>
       </c>
       <c r="B211" t="n">
-        <v>186.87</v>
+        <v>190.31</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.02090996313665983</v>
+        <v>0.03641404747381216</v>
       </c>
       <c r="D211" t="n">
-        <v>0.09562740734781758</v>
+        <v>-0.02331518058120576</v>
       </c>
       <c r="E211" t="n">
-        <v>42.25594506428692</v>
+        <v>60.45284827113861</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5164,19 +5164,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45323.8397800926</v>
+        <v>45342.8397337963</v>
       </c>
       <c r="B212" t="n">
-        <v>186.78</v>
+        <v>189.95</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.04680918123426636</v>
+        <v>0.0331786341822351</v>
       </c>
       <c r="D212" t="n">
-        <v>0.06714008963140079</v>
+        <v>-0.01201641762851759</v>
       </c>
       <c r="E212" t="n">
-        <v>40.18094400168207</v>
+        <v>50.62594838550008</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5187,19 +5187,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45323.84048611111</v>
+        <v>45342.84045138889</v>
       </c>
       <c r="B213" t="n">
-        <v>186.99</v>
+        <v>190.21</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.04981501670980037</v>
+        <v>0.0510064028662498</v>
       </c>
       <c r="D213" t="n">
-        <v>0.04374906836316056</v>
+        <v>0.0005881464704358894</v>
       </c>
       <c r="E213" t="n">
-        <v>46.75146269771322</v>
+        <v>56.16772829572889</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5210,19 +5210,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45323.84119212963</v>
+        <v>45342.84115740741</v>
       </c>
       <c r="B214" t="n">
-        <v>187.43</v>
+        <v>190.26</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.01650260841614681</v>
+        <v>0.06838136234387093</v>
       </c>
       <c r="D214" t="n">
-        <v>0.03169873300729908</v>
+        <v>0.0141467896451229</v>
       </c>
       <c r="E214" t="n">
-        <v>57.32756398146098</v>
+        <v>57.16346873032479</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5233,19 +5233,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45323.84190972222</v>
+        <v>45342.84186342593</v>
       </c>
       <c r="B215" t="n">
-        <v>187.31</v>
+        <v>190.51</v>
       </c>
       <c r="C215" t="n">
-        <v>0.000212271112104645</v>
+        <v>0.101157967491929</v>
       </c>
       <c r="D215" t="n">
-        <v>0.0254014406282602</v>
+        <v>0.03154902521448411</v>
       </c>
       <c r="E215" t="n">
-        <v>54.16767814721051</v>
+        <v>61.83224887299533</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5256,19 +5256,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45323.84261574074</v>
+        <v>45342.84256944444</v>
       </c>
       <c r="B216" t="n">
-        <v>187.46</v>
+        <v>190.51</v>
       </c>
       <c r="C216" t="n">
-        <v>0.02527136736799207</v>
+        <v>0.1256848465396558</v>
       </c>
       <c r="D216" t="n">
-        <v>0.02537542597620657</v>
+        <v>0.05037618947951846</v>
       </c>
       <c r="E216" t="n">
-        <v>57.33352135254766</v>
+        <v>61.83224887299534</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5279,19 +5279,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45323.84332175926</v>
+        <v>45342.84327546296</v>
       </c>
       <c r="B217" t="n">
-        <v>187.51</v>
+        <v>190.71</v>
       </c>
       <c r="C217" t="n">
-        <v>0.04860517363835015</v>
+        <v>0.1594231723287294</v>
       </c>
       <c r="D217" t="n">
-        <v>0.03002137550863529</v>
+        <v>0.07218558604936065</v>
       </c>
       <c r="E217" t="n">
-        <v>58.36587944571237</v>
+        <v>65.33742102562654</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5302,19 +5302,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45323.84402777778</v>
+        <v>45342.84398148148</v>
       </c>
       <c r="B218" t="n">
-        <v>187.38</v>
+        <v>190.6</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0559623703044565</v>
+        <v>0.1752646164958662</v>
       </c>
       <c r="D218" t="n">
-        <v>0.03520957446779954</v>
+        <v>0.09280139213866177</v>
       </c>
       <c r="E218" t="n">
-        <v>54.66255689773036</v>
+        <v>61.96673156034866</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5325,19 +5325,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45323.84473379629</v>
+        <v>45342.8446875</v>
       </c>
       <c r="B219" t="n">
-        <v>187.34</v>
+        <v>190.12</v>
       </c>
       <c r="C219" t="n">
-        <v>0.05789792472600652</v>
+        <v>0.1473880885185963</v>
       </c>
       <c r="D219" t="n">
-        <v>0.03974724451944094</v>
+        <v>0.1037187314146487</v>
       </c>
       <c r="E219" t="n">
-        <v>53.53694820270905</v>
+        <v>49.87534952185906</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5348,19 +5348,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45323.84548611111</v>
+        <v>45342.84539351852</v>
       </c>
       <c r="B220" t="n">
-        <v>187.44</v>
+        <v>190.33</v>
       </c>
       <c r="C220" t="n">
-        <v>0.06673178731011831</v>
+        <v>0.140620004336796</v>
       </c>
       <c r="D220" t="n">
-        <v>0.04514415307757641</v>
+        <v>0.1110989859990782</v>
       </c>
       <c r="E220" t="n">
-        <v>55.97754718329801</v>
+        <v>54.09556601985449</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5371,19 +5371,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45323.84619212963</v>
+        <v>45342.84609953704</v>
       </c>
       <c r="B221" t="n">
-        <v>187.53</v>
+        <v>190.46</v>
       </c>
       <c r="C221" t="n">
-        <v>0.08007191569015504</v>
+        <v>0.1440852374782366</v>
       </c>
       <c r="D221" t="n">
-        <v>0.05212970560009214</v>
+        <v>0.1176962362949099</v>
       </c>
       <c r="E221" t="n">
-        <v>58.11021875051368</v>
+        <v>56.53522726727788</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5394,19 +5394,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45323.84689814815</v>
+        <v>45342.84680555556</v>
       </c>
       <c r="B222" t="n">
-        <v>187.51</v>
+        <v>190.75</v>
       </c>
       <c r="C222" t="n">
-        <v>0.08801564116521376</v>
+        <v>0.1682920698542887</v>
       </c>
       <c r="D222" t="n">
-        <v>0.05930689271311647</v>
+        <v>0.1278154030067856</v>
       </c>
       <c r="E222" t="n">
-        <v>57.44422783082732</v>
+        <v>61.45637876359109</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5417,19 +5417,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45323.84760416667</v>
+        <v>45342.84751157407</v>
       </c>
       <c r="B223" t="n">
-        <v>187.68</v>
+        <v>191</v>
       </c>
       <c r="C223" t="n">
-        <v>0.1067975840170163</v>
+        <v>0.2052826984126739</v>
       </c>
       <c r="D223" t="n">
-        <v>0.06880503097389645</v>
+        <v>0.1433088620879633</v>
       </c>
       <c r="E223" t="n">
-        <v>61.48487322367026</v>
+        <v>65.12245829749367</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5440,19 +5440,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45323.84831018518</v>
+        <v>45342.84821759259</v>
       </c>
       <c r="B224" t="n">
-        <v>187.6</v>
+        <v>190.92</v>
       </c>
       <c r="C224" t="n">
-        <v>0.1139139485417218</v>
+        <v>0.2255427897514437</v>
       </c>
       <c r="D224" t="n">
-        <v>0.07782681448746151</v>
+        <v>0.1597556476206594</v>
       </c>
       <c r="E224" t="n">
-        <v>58.66210230053395</v>
+        <v>63.05561387408418</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5463,19 +5463,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45323.84901620371</v>
+        <v>45342.84892361111</v>
       </c>
       <c r="B225" t="n">
-        <v>187.68</v>
+        <v>191.02</v>
       </c>
       <c r="C225" t="n">
-        <v>0.124573049539265</v>
+        <v>0.2468230004612622</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0871760614978222</v>
+        <v>0.1771691181887799</v>
       </c>
       <c r="E225" t="n">
-        <v>60.60962339205548</v>
+        <v>64.5693521449119</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5486,19 +5486,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45323.84972222222</v>
+        <v>45342.84962962963</v>
       </c>
       <c r="B226" t="n">
-        <v>187.57</v>
+        <v>191.08</v>
       </c>
       <c r="C226" t="n">
-        <v>0.122729632377343</v>
+        <v>0.2654690572799723</v>
       </c>
       <c r="D226" t="n">
-        <v>0.09428677567372637</v>
+        <v>0.1948291060070184</v>
       </c>
       <c r="E226" t="n">
-        <v>56.65709100250667</v>
+        <v>65.48318954423539</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5509,19 +5509,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45323.85043981481</v>
+        <v>45342.85034722222</v>
       </c>
       <c r="B227" t="n">
-        <v>187.59</v>
+        <v>191.1</v>
       </c>
       <c r="C227" t="n">
-        <v>0.121482172978375</v>
+        <v>0.2786479444481245</v>
       </c>
       <c r="D227" t="n">
-        <v>0.09972585513465612</v>
+        <v>0.2115928736952396</v>
       </c>
       <c r="E227" t="n">
-        <v>57.20355746727386</v>
+        <v>65.79984092710384</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5532,19 +5532,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45323.85115740741</v>
+        <v>45342.85106481481</v>
       </c>
       <c r="B228" t="n">
-        <v>187.68</v>
+        <v>190.94</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1262998937002067</v>
+        <v>0.2730342754836101</v>
       </c>
       <c r="D228" t="n">
-        <v>0.1050406628477662</v>
+        <v>0.2238811540529138</v>
       </c>
       <c r="E228" t="n">
-        <v>59.66785946174753</v>
+        <v>60.98020450003231</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5555,19 +5555,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45323.85186342592</v>
+        <v>45342.85178240741</v>
       </c>
       <c r="B229" t="n">
-        <v>187.65</v>
+        <v>191</v>
       </c>
       <c r="C229" t="n">
-        <v>0.1262419837962341</v>
+        <v>0.270310924864873</v>
       </c>
       <c r="D229" t="n">
-        <v>0.1092809270374598</v>
+        <v>0.2331671082153056</v>
       </c>
       <c r="E229" t="n">
-        <v>58.45947645522938</v>
+        <v>62.10126763005061</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -5578,19 +5578,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45323.85256944445</v>
+        <v>45342.85248842592</v>
       </c>
       <c r="B230" t="n">
-        <v>187.46</v>
+        <v>190.49</v>
       </c>
       <c r="C230" t="n">
-        <v>0.109601262546164</v>
+        <v>0.2244130185411848</v>
       </c>
       <c r="D230" t="n">
-        <v>0.1093449941392007</v>
+        <v>0.2314162902804815</v>
       </c>
       <c r="E230" t="n">
-        <v>51.36459635917421</v>
+        <v>49.16981616253704</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5601,19 +5601,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45323.85327546296</v>
+        <v>45342.85319444445</v>
       </c>
       <c r="B231" t="n">
-        <v>187.47</v>
+        <v>190.66</v>
       </c>
       <c r="C231" t="n">
-        <v>0.09611236398788492</v>
+        <v>0.1994569606688685</v>
       </c>
       <c r="D231" t="n">
-        <v>0.1066984681089375</v>
+        <v>0.2250244243581589</v>
       </c>
       <c r="E231" t="n">
-        <v>51.69687045926733</v>
+        <v>52.70510198016589</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5624,19 +5624,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45323.85398148148</v>
+        <v>45342.85390046296</v>
       </c>
       <c r="B232" t="n">
-        <v>187.33</v>
+        <v>190.64</v>
       </c>
       <c r="C232" t="n">
-        <v>0.073280749858327</v>
+        <v>0.1760360382826605</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1000149244588154</v>
+        <v>0.2152267471430592</v>
       </c>
       <c r="E232" t="n">
-        <v>46.86913339871283</v>
+        <v>52.24472767329973</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5647,19 +5647,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45323.8546875</v>
+        <v>45342.85461805556</v>
       </c>
       <c r="B233" t="n">
-        <v>187.54</v>
+        <v>190.55</v>
       </c>
       <c r="C233" t="n">
-        <v>0.07130976158180147</v>
+        <v>0.1485007168885204</v>
       </c>
       <c r="D233" t="n">
-        <v>0.09427389188341262</v>
+        <v>0.2018815410921515</v>
       </c>
       <c r="E233" t="n">
-        <v>53.83350869994258</v>
+        <v>50.12298578350778</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5670,19 +5670,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45323.85539351852</v>
+        <v>45342.85532407407</v>
       </c>
       <c r="B234" t="n">
-        <v>187.86</v>
+        <v>190.57</v>
       </c>
       <c r="C234" t="n">
-        <v>0.0944799586690408</v>
+        <v>0.1268305851194782</v>
       </c>
       <c r="D234" t="n">
-        <v>0.09431510524053827</v>
+        <v>0.1868713498976168</v>
       </c>
       <c r="E234" t="n">
-        <v>62.00617322697375</v>
+        <v>50.60307523430858</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5693,19 +5693,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45323.85611111111</v>
+        <v>45342.85603009259</v>
       </c>
       <c r="B235" t="n">
-        <v>187.85</v>
+        <v>190.37</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1107588315018688</v>
+        <v>0.09245278290589454</v>
       </c>
       <c r="D235" t="n">
-        <v>0.09760385049280439</v>
+        <v>0.1679876364992724</v>
       </c>
       <c r="E235" t="n">
-        <v>61.63895285976954</v>
+        <v>45.85028706653104</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -5716,19 +5716,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45323.85684027777</v>
+        <v>45342.85674768518</v>
       </c>
       <c r="B236" t="n">
-        <v>187.88</v>
+        <v>190.11</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1246438876358411</v>
+        <v>0.04372427367411547</v>
       </c>
       <c r="D236" t="n">
-        <v>0.1030118579214117</v>
+        <v>0.143134963934241</v>
       </c>
       <c r="E236" t="n">
-        <v>62.35915943589481</v>
+        <v>40.52196919692697</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -5739,19 +5739,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45323.8575462963</v>
+        <v>45342.85745370371</v>
       </c>
       <c r="B237" t="n">
-        <v>187.75</v>
+        <v>190.28</v>
       </c>
       <c r="C237" t="n">
-        <v>0.1237316793346679</v>
+        <v>0.01860963796633541</v>
       </c>
       <c r="D237" t="n">
-        <v>0.107155822204063</v>
+        <v>0.1182298987406599</v>
       </c>
       <c r="E237" t="n">
-        <v>57.33574648280073</v>
+        <v>45.02086778721985</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -5762,19 +5762,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45323.85825231481</v>
+        <v>45342.8581712963</v>
       </c>
       <c r="B238" t="n">
-        <v>187.8</v>
+        <v>190.19</v>
       </c>
       <c r="C238" t="n">
-        <v>0.12559554258209</v>
+        <v>-0.008458633747409294</v>
       </c>
       <c r="D238" t="n">
-        <v>0.1108437662796684</v>
+        <v>0.09289219224304607</v>
       </c>
       <c r="E238" t="n">
-        <v>58.71333577754932</v>
+        <v>43.15961461118174</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -5785,19 +5785,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45323.85895833333</v>
+        <v>45342.85890046296</v>
       </c>
       <c r="B239" t="n">
-        <v>187.58</v>
+        <v>190.15</v>
       </c>
       <c r="C239" t="n">
-        <v>0.1080746885157282</v>
+        <v>-0.03276045763993807</v>
       </c>
       <c r="D239" t="n">
-        <v>0.1102899507268804</v>
+        <v>0.06776166226644925</v>
       </c>
       <c r="E239" t="n">
-        <v>50.92221006539207</v>
+        <v>42.32215942945407</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -5808,19 +5808,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45323.85966435185</v>
+        <v>45342.85961805555</v>
       </c>
       <c r="B240" t="n">
-        <v>187.22</v>
+        <v>190.27</v>
       </c>
       <c r="C240" t="n">
-        <v>0.06439795454903674</v>
+        <v>-0.04185436003280074</v>
       </c>
       <c r="D240" t="n">
-        <v>0.1011115514913116</v>
+        <v>0.04583845780659925</v>
       </c>
       <c r="E240" t="n">
-        <v>41.27115879426003</v>
+        <v>45.72461797883457</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -5831,19 +5831,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45323.86037037037</v>
+        <v>45342.86032407408</v>
       </c>
       <c r="B241" t="n">
-        <v>187.17</v>
+        <v>190.31</v>
       </c>
       <c r="C241" t="n">
-        <v>0.02545580737231035</v>
+        <v>-0.04531135638009687</v>
       </c>
       <c r="D241" t="n">
-        <v>0.08598040266751138</v>
+        <v>0.02760849496926003</v>
       </c>
       <c r="E241" t="n">
-        <v>40.13346287679541</v>
+        <v>46.85012834587353</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -5854,19 +5854,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45323.86107638889</v>
+        <v>45342.86103009259</v>
       </c>
       <c r="B242" t="n">
-        <v>187.04</v>
+        <v>190.37</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.01571488693849687</v>
+        <v>-0.04271713578177128</v>
       </c>
       <c r="D242" t="n">
-        <v>0.06564134474630973</v>
+        <v>0.01354336881905377</v>
       </c>
       <c r="E242" t="n">
-        <v>37.25769670302508</v>
+        <v>48.57284960683496</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -5877,19 +5877,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45323.86179398148</v>
+        <v>45342.86173611111</v>
       </c>
       <c r="B243" t="n">
-        <v>187.14</v>
+        <v>190.62</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.03981483391206098</v>
+        <v>-0.02025480185676543</v>
       </c>
       <c r="D243" t="n">
-        <v>0.04455010901463559</v>
+        <v>0.006783734683889931</v>
       </c>
       <c r="E243" t="n">
-        <v>40.77334539174981</v>
+        <v>55.10274237835641</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -5900,19 +5900,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45323.8625</v>
+        <v>45342.86244212963</v>
       </c>
       <c r="B244" t="n">
-        <v>187.2</v>
+        <v>190.81</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.05345650366157884</v>
+        <v>0.01273141192328353</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0249487864793927</v>
+        <v>0.007973270131768653</v>
       </c>
       <c r="E244" t="n">
-        <v>42.8427815459378</v>
+        <v>59.32935922500855</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -5923,19 +5923,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45323.86320601852</v>
+        <v>45342.86319444444</v>
       </c>
       <c r="B245" t="n">
-        <v>187.13</v>
+        <v>190.88</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.06911927621561631</v>
+        <v>0.04401426987718082</v>
       </c>
       <c r="D245" t="n">
-        <v>0.006135173940390903</v>
+        <v>0.01518147008085109</v>
       </c>
       <c r="E245" t="n">
-        <v>41.04107112838133</v>
+        <v>60.79375165159581</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -5946,19 +5946,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45323.86392361111</v>
+        <v>45342.86390046297</v>
       </c>
       <c r="B246" t="n">
-        <v>187.18</v>
+        <v>190.98</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.0766143911657764</v>
+        <v>0.07599925237806815</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.01041473908084256</v>
+        <v>0.02734502654029451</v>
       </c>
       <c r="E246" t="n">
-        <v>42.88858166420353</v>
+        <v>62.85155442717328</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -5969,19 +5969,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45323.86462962963</v>
+        <v>45342.86461805556</v>
       </c>
       <c r="B247" t="n">
-        <v>187.31</v>
+        <v>191.14</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.07124316337839787</v>
+        <v>0.1129561560197487</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.02258042394035362</v>
+        <v>0.04446725243618535</v>
       </c>
       <c r="E247" t="n">
-        <v>47.49531845121633</v>
+        <v>65.93256093657475</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -5992,19 +5992,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45323.86534722222</v>
+        <v>45342.86532407408</v>
       </c>
       <c r="B248" t="n">
-        <v>187.44</v>
+        <v>191.06</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.0558526782073443</v>
+        <v>0.1342419790322538</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.02923487479375176</v>
+        <v>0.06242219775539903</v>
       </c>
       <c r="E248" t="n">
-        <v>51.69171708982828</v>
+        <v>63.11396934422459</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45323.86605324074</v>
+        <v>45342.86603009259</v>
       </c>
       <c r="B249" t="n">
-        <v>187.46</v>
+        <v>190.95</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.04156266642706896</v>
+        <v>0.140614153996097</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.0317004331204152</v>
+        <v>0.07806058900353863</v>
       </c>
       <c r="E249" t="n">
-        <v>52.32305010249155</v>
+        <v>59.35656161684291</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -6038,19 +6038,19 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45323.86675925926</v>
+        <v>45342.86673611111</v>
       </c>
       <c r="B250" t="n">
-        <v>187.61</v>
+        <v>190.95</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.01792732766560334</v>
+        <v>0.1440041582669664</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.02894581202945283</v>
+        <v>0.09124930285622419</v>
       </c>
       <c r="E250" t="n">
-        <v>56.87513728005901</v>
+        <v>59.35656161684291</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -6061,19 +6061,19 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45323.86746527778</v>
+        <v>45342.8674537037</v>
       </c>
       <c r="B251" t="n">
-        <v>187.53</v>
+        <v>191.11</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.005587078463122452</v>
+        <v>0.1577826042539243</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.02427406531618675</v>
+        <v>0.1045559631357642</v>
       </c>
       <c r="E251" t="n">
-        <v>53.91833689523077</v>
+        <v>63.06582674002071</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -6084,19 +6084,19 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45323.86817129629</v>
+        <v>45342.86815972222</v>
       </c>
       <c r="B252" t="n">
-        <v>187.76</v>
+        <v>191.18</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0224924567065159</v>
+        <v>0.1723636362465299</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.01492076091164623</v>
+        <v>0.1181174977579174</v>
       </c>
       <c r="E252" t="n">
-        <v>60.30732967825724</v>
+        <v>64.58849252934056</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -6107,19 +6107,19 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45323.86887731482</v>
+        <v>45342.86886574074</v>
       </c>
       <c r="B253" t="n">
-        <v>187.8</v>
+        <v>191.06</v>
       </c>
       <c r="C253" t="n">
-        <v>0.04742665142109104</v>
+        <v>0.1722506141752262</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.002451278445098773</v>
+        <v>0.1289441210413792</v>
       </c>
       <c r="E253" t="n">
-        <v>61.31194092091287</v>
+        <v>60.02032091654659</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6130,19 +6130,19 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45323.86958333333</v>
+        <v>45342.86957175926</v>
       </c>
       <c r="B254" t="n">
-        <v>187.68</v>
+        <v>191.24</v>
       </c>
       <c r="C254" t="n">
-        <v>0.05684886492770147</v>
+        <v>0.1845580685162247</v>
       </c>
       <c r="D254" t="n">
-        <v>0.009408750229461277</v>
+        <v>0.1400669105363483</v>
       </c>
       <c r="E254" t="n">
-        <v>56.67743104092817</v>
+        <v>64.11971007640564</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6153,19 +6153,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45323.87028935185</v>
+        <v>45342.87027777778</v>
       </c>
       <c r="B255" t="n">
-        <v>187.77</v>
+        <v>191.23</v>
       </c>
       <c r="C255" t="n">
-        <v>0.07076257790379259</v>
+        <v>0.1912997142988786</v>
       </c>
       <c r="D255" t="n">
-        <v>0.02167951576432754</v>
+        <v>0.1503134712888544</v>
       </c>
       <c r="E255" t="n">
-        <v>59.17019956226714</v>
+        <v>63.72875446274042</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6176,19 +6176,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45323.87099537037</v>
+        <v>45342.87099537037</v>
       </c>
       <c r="B256" t="n">
-        <v>187.72</v>
+        <v>191.22</v>
       </c>
       <c r="C256" t="n">
-        <v>0.07686861994596939</v>
+        <v>0.1936038559884139</v>
       </c>
       <c r="D256" t="n">
-        <v>0.03271733660065591</v>
+        <v>0.1589715482287663</v>
       </c>
       <c r="E256" t="n">
-        <v>57.20102709299606</v>
+        <v>63.31302229269325</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6199,19 +6199,19 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45323.87170138889</v>
+        <v>45342.87170138889</v>
       </c>
       <c r="B257" t="n">
-        <v>187.6</v>
+        <v>191.13</v>
       </c>
       <c r="C257" t="n">
-        <v>0.07120391077737054</v>
+        <v>0.1860232962752661</v>
       </c>
       <c r="D257" t="n">
-        <v>0.04041465143599884</v>
+        <v>0.1643818978380663</v>
       </c>
       <c r="E257" t="n">
-        <v>52.67054461191387</v>
+        <v>59.54795905015438</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6222,19 +6222,19 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45323.87240740741</v>
+        <v>45342.87240740741</v>
       </c>
       <c r="B258" t="n">
-        <v>187.76</v>
+        <v>191.13</v>
       </c>
       <c r="C258" t="n">
-        <v>0.07871784050823294</v>
+        <v>0.1779641877105291</v>
       </c>
       <c r="D258" t="n">
-        <v>0.04807528925044566</v>
+        <v>0.1670983558125588</v>
       </c>
       <c r="E258" t="n">
-        <v>57.50354421682192</v>
+        <v>59.54795905015438</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6245,19 +6245,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45323.873125</v>
+        <v>45342.87311342593</v>
       </c>
       <c r="B259" t="n">
-        <v>187.68</v>
+        <v>191.09</v>
       </c>
       <c r="C259" t="n">
-        <v>0.07732598670185098</v>
+        <v>0.1664311062115189</v>
       </c>
       <c r="D259" t="n">
-        <v>0.05392542874072673</v>
+        <v>0.1669649058923509</v>
       </c>
       <c r="E259" t="n">
-        <v>54.50653214609309</v>
+        <v>57.77695035482818</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6268,19 +6268,19 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45323.87384259259</v>
+        <v>45342.87381944444</v>
       </c>
       <c r="B260" t="n">
-        <v>187.54</v>
+        <v>191.39</v>
       </c>
       <c r="C260" t="n">
-        <v>0.06418620395663766</v>
+        <v>0.1794301892967951</v>
       </c>
       <c r="D260" t="n">
-        <v>0.05597758378390891</v>
+        <v>0.1694579625732397</v>
       </c>
       <c r="E260" t="n">
-        <v>49.63153548595998</v>
+        <v>65.95505094208994</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6291,19 +6291,19 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45323.87454861111</v>
+        <v>45342.87452546296</v>
       </c>
       <c r="B261" t="n">
-        <v>187.55</v>
+        <v>191.5</v>
       </c>
       <c r="C261" t="n">
-        <v>0.05395775646155698</v>
+        <v>0.196344796394385</v>
       </c>
       <c r="D261" t="n">
-        <v>0.05557361831943854</v>
+        <v>0.1748353293374688</v>
       </c>
       <c r="E261" t="n">
-        <v>49.97569791368948</v>
+        <v>68.37387845314103</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6314,19 +6314,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45323.87525462963</v>
+        <v>45342.87523148148</v>
       </c>
       <c r="B262" t="n">
-        <v>187.77</v>
+        <v>191.56</v>
       </c>
       <c r="C262" t="n">
-        <v>0.06287896988894204</v>
+        <v>0.212145758691463</v>
       </c>
       <c r="D262" t="n">
-        <v>0.05703468863333924</v>
+        <v>0.1822974152082676</v>
       </c>
       <c r="E262" t="n">
-        <v>56.94564107093444</v>
+        <v>69.64090098466497</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6337,19 +6337,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45323.87596064815</v>
+        <v>45342.8759375</v>
       </c>
       <c r="B263" t="n">
-        <v>187.81</v>
+        <v>191.25</v>
       </c>
       <c r="C263" t="n">
-        <v>0.07234283830200638</v>
+        <v>0.1973784697938186</v>
       </c>
       <c r="D263" t="n">
-        <v>0.06009631856707268</v>
+        <v>0.1853136261253778</v>
       </c>
       <c r="E263" t="n">
-        <v>58.08904004998921</v>
+        <v>56.94677836633574</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6360,19 +6360,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45323.87666666666</v>
+        <v>45342.87664351852</v>
       </c>
       <c r="B264" t="n">
-        <v>187.87</v>
+        <v>191.27</v>
       </c>
       <c r="C264" t="n">
-        <v>0.08371945499823141</v>
+        <v>0.185154770859242</v>
       </c>
       <c r="D264" t="n">
-        <v>0.06482094585330443</v>
+        <v>0.1852818550721507</v>
       </c>
       <c r="E264" t="n">
-        <v>59.8130572093411</v>
+        <v>57.48521093519125</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6383,19 +6383,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45323.87737268519</v>
+        <v>45342.87734953704</v>
       </c>
       <c r="B265" t="n">
-        <v>187.68</v>
+        <v>191.34</v>
       </c>
       <c r="C265" t="n">
-        <v>0.07652199565771411</v>
+        <v>0.1790518184648136</v>
       </c>
       <c r="D265" t="n">
-        <v>0.06716115581418637</v>
+        <v>0.1840358477506833</v>
       </c>
       <c r="E265" t="n">
-        <v>52.45463238272468</v>
+        <v>59.3990886127112</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6406,19 +6406,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45323.878125</v>
+        <v>45342.87805555556</v>
       </c>
       <c r="B266" t="n">
-        <v>187.73</v>
+        <v>191.37</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0739995190158993</v>
+        <v>0.1746229888855453</v>
       </c>
       <c r="D266" t="n">
-        <v>0.06852882845452896</v>
+        <v>0.1821532759776557</v>
       </c>
       <c r="E266" t="n">
-        <v>54.05645508584707</v>
+        <v>60.22548225828697</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6429,19 +6429,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45323.87883101852</v>
+        <v>45342.87876157407</v>
       </c>
       <c r="B267" t="n">
-        <v>188</v>
+        <v>191.24</v>
       </c>
       <c r="C267" t="n">
-        <v>0.09271838182911551</v>
+        <v>0.1587927322192968</v>
       </c>
       <c r="D267" t="n">
-        <v>0.07336673912944627</v>
+        <v>0.1774811672259839</v>
       </c>
       <c r="E267" t="n">
-        <v>61.58318068459123</v>
+        <v>55.00116155561562</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6452,19 +6452,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45323.87953703704</v>
+        <v>45342.87946759259</v>
       </c>
       <c r="B268" t="n">
-        <v>187.98</v>
+        <v>191.5</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1047320962061065</v>
+        <v>0.165321246429869</v>
       </c>
       <c r="D268" t="n">
-        <v>0.07963981054477831</v>
+        <v>0.1750491830667609</v>
       </c>
       <c r="E268" t="n">
-        <v>60.78875054261341</v>
+        <v>62.08509117312336</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6475,19 +6475,19 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45323.88024305556</v>
+        <v>45342.88017361111</v>
       </c>
       <c r="B269" t="n">
-        <v>187.97</v>
+        <v>191.62</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1121533015304408</v>
+        <v>0.1781248259802624</v>
       </c>
       <c r="D269" t="n">
-        <v>0.08614250874191082</v>
+        <v>0.1756643116494612</v>
       </c>
       <c r="E269" t="n">
-        <v>60.36941156864641</v>
+        <v>64.83651460342789</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6498,19 +6498,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45323.88094907408</v>
+        <v>45342.88087962963</v>
       </c>
       <c r="B270" t="n">
-        <v>187.93</v>
+        <v>191.33</v>
       </c>
       <c r="C270" t="n">
-        <v>0.113498652693039</v>
+        <v>0.1629923048190847</v>
       </c>
       <c r="D270" t="n">
-        <v>0.09161373753213647</v>
+        <v>0.1731299102833859</v>
       </c>
       <c r="E270" t="n">
-        <v>58.62725864748044</v>
+        <v>54.53653445661304</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6521,19 +6521,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45323.88167824074</v>
+        <v>45342.88158564815</v>
       </c>
       <c r="B271" t="n">
-        <v>187.95</v>
+        <v>191.3</v>
       </c>
       <c r="C271" t="n">
-        <v>0.1148547124051333</v>
+        <v>0.1468857163900736</v>
       </c>
       <c r="D271" t="n">
-        <v>0.09626193250673586</v>
+        <v>0.1678810715047235</v>
       </c>
       <c r="E271" t="n">
-        <v>59.26031401533229</v>
+        <v>53.58813067936355</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6544,19 +6544,19 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45323.88240740741</v>
+        <v>45342.88229166667</v>
       </c>
       <c r="B272" t="n">
-        <v>187.94</v>
+        <v>191.2</v>
       </c>
       <c r="C272" t="n">
-        <v>0.1138105459413055</v>
+        <v>0.1246154751264328</v>
       </c>
       <c r="D272" t="n">
-        <v>0.09977165519364978</v>
+        <v>0.1592279522290654</v>
       </c>
       <c r="E272" t="n">
-        <v>58.77604968726202</v>
+        <v>50.4393756874465</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6567,19 +6567,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45323.88311342592</v>
+        <v>45342.88302083333</v>
       </c>
       <c r="B273" t="n">
-        <v>187.88</v>
+        <v>191.28</v>
       </c>
       <c r="C273" t="n">
-        <v>0.1069091557381512</v>
+        <v>0.1121289274113053</v>
       </c>
       <c r="D273" t="n">
-        <v>0.1011991553025501</v>
+        <v>0.1498081472655134</v>
       </c>
       <c r="E273" t="n">
-        <v>55.82818223553135</v>
+        <v>52.82737907254407</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6590,19 +6590,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45323.88381944445</v>
+        <v>45342.88372685185</v>
       </c>
       <c r="B274" t="n">
-        <v>187.65</v>
+        <v>191.27</v>
       </c>
       <c r="C274" t="n">
-        <v>0.08193616733692011</v>
+        <v>0.1002704763249369</v>
       </c>
       <c r="D274" t="n">
-        <v>0.09734655770942408</v>
+        <v>0.1399006130773981</v>
       </c>
       <c r="E274" t="n">
-        <v>46.25187318785017</v>
+        <v>52.4869363228598</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6613,19 +6613,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45323.88452546296</v>
+        <v>45342.88443287037</v>
       </c>
       <c r="B275" t="n">
-        <v>187.53</v>
+        <v>191.51</v>
       </c>
       <c r="C275" t="n">
-        <v>0.05186404061419125</v>
+        <v>0.1089822827236731</v>
       </c>
       <c r="D275" t="n">
-        <v>0.08825005429037752</v>
+        <v>0.1337169470066531</v>
       </c>
       <c r="E275" t="n">
-        <v>42.18602324015845</v>
+        <v>59.27093012350846</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6636,19 +6636,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45323.88523148148</v>
+        <v>45342.88513888889</v>
       </c>
       <c r="B276" t="n">
-        <v>187.58</v>
+        <v>191.41</v>
       </c>
       <c r="C276" t="n">
-        <v>0.03170081836003646</v>
+        <v>0.1065886007542929</v>
       </c>
       <c r="D276" t="n">
-        <v>0.07694020710430931</v>
+        <v>0.128291277756181</v>
       </c>
       <c r="E276" t="n">
-        <v>44.37997289912671</v>
+        <v>55.70216532061753</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -6659,19 +6659,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45323.8859375</v>
+        <v>45342.88585648148</v>
       </c>
       <c r="B277" t="n">
-        <v>187.89</v>
+        <v>191.09</v>
       </c>
       <c r="C277" t="n">
-        <v>0.04027150384911238</v>
+        <v>0.07797145846200237</v>
       </c>
       <c r="D277" t="n">
-        <v>0.06960646645326993</v>
+        <v>0.1182273138973453</v>
       </c>
       <c r="E277" t="n">
-        <v>55.62392681051863</v>
+        <v>46.13029003786328</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -6682,19 +6682,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45323.88664351852</v>
+        <v>45342.88658564815</v>
       </c>
       <c r="B278" t="n">
-        <v>187.99</v>
+        <v>190.71</v>
       </c>
       <c r="C278" t="n">
-        <v>0.05450470183799894</v>
+        <v>0.02434866654112966</v>
       </c>
       <c r="D278" t="n">
-        <v>0.06658611353021573</v>
+        <v>0.09945158442610219</v>
       </c>
       <c r="E278" t="n">
-        <v>58.53587319371248</v>
+        <v>37.81923756482801</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -6705,19 +6705,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45323.88734953704</v>
+        <v>45342.88729166667</v>
       </c>
       <c r="B279" t="n">
-        <v>187.92</v>
+        <v>190.93</v>
       </c>
       <c r="C279" t="n">
-        <v>0.05945088599636961</v>
+        <v>-0.0003911125027684648</v>
       </c>
       <c r="D279" t="n">
-        <v>0.06515906802344651</v>
+        <v>0.07948304504032806</v>
       </c>
       <c r="E279" t="n">
-        <v>55.77675398558403</v>
+        <v>44.09860962725299</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -6728,19 +6728,19 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45323.88805555556</v>
+        <v>45342.88799768518</v>
       </c>
       <c r="B280" t="n">
-        <v>187.83</v>
+        <v>190.76</v>
       </c>
       <c r="C280" t="n">
-        <v>0.05546911135130017</v>
+        <v>-0.03333092671090299</v>
       </c>
       <c r="D280" t="n">
-        <v>0.06322107668901725</v>
+        <v>0.05692025069008186</v>
       </c>
       <c r="E280" t="n">
-        <v>52.35953140570052</v>
+        <v>40.67998162561276</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -6751,19 +6751,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45323.88877314814</v>
+        <v>45342.88871527778</v>
       </c>
       <c r="B281" t="n">
-        <v>188.17</v>
+        <v>191.57</v>
       </c>
       <c r="C281" t="n">
-        <v>0.07883986783903651</v>
+        <v>0.005856750780878883</v>
       </c>
       <c r="D281" t="n">
-        <v>0.0663448349190211</v>
+        <v>0.04670755070824126</v>
       </c>
       <c r="E281" t="n">
-        <v>61.86484830399142</v>
+        <v>57.56139568735541</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -6774,19 +6774,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45323.88947916667</v>
+        <v>45342.8894212963</v>
       </c>
       <c r="B282" t="n">
-        <v>188.03</v>
+        <v>191.51</v>
       </c>
       <c r="C282" t="n">
-        <v>0.08508373838822081</v>
+        <v>0.03170627872137288</v>
       </c>
       <c r="D282" t="n">
-        <v>0.07009261561286104</v>
+        <v>0.04370729631086759</v>
       </c>
       <c r="E282" t="n">
-        <v>56.83621969171291</v>
+        <v>56.28366067249524</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -6797,19 +6797,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45323.89018518518</v>
+        <v>45342.89012731481</v>
       </c>
       <c r="B283" t="n">
-        <v>187.98</v>
+        <v>191.48</v>
       </c>
       <c r="C283" t="n">
-        <v>0.08501744051775972</v>
+        <v>0.04920427037021113</v>
       </c>
       <c r="D283" t="n">
-        <v>0.07307758059384077</v>
+        <v>0.0448066911227363</v>
       </c>
       <c r="E283" t="n">
-        <v>55.11320904513794</v>
+        <v>55.6188678640023</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -6820,19 +6820,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45323.89091435185</v>
+        <v>45342.89083333333</v>
       </c>
       <c r="B284" t="n">
-        <v>187.97</v>
+        <v>190.86</v>
       </c>
       <c r="C284" t="n">
-        <v>0.08319891722305783</v>
+        <v>0.01289410120199364</v>
       </c>
       <c r="D284" t="n">
-        <v>0.07510184791968419</v>
+        <v>0.03842417313858777</v>
       </c>
       <c r="E284" t="n">
-        <v>54.7556838412805</v>
+        <v>44.04126011737721</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -6843,19 +6843,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45323.89163194445</v>
+        <v>45342.89153935185</v>
       </c>
       <c r="B285" t="n">
-        <v>188.01</v>
+        <v>191.14</v>
       </c>
       <c r="C285" t="n">
-        <v>0.08401689564200865</v>
+        <v>0.00663520397671391</v>
       </c>
       <c r="D285" t="n">
-        <v>0.07688485746414908</v>
+        <v>0.03206637930621299</v>
       </c>
       <c r="E285" t="n">
-        <v>55.98564109733416</v>
+        <v>49.18565227352305</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -6866,19 +6866,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45323.89233796296</v>
+        <v>45342.89224537037</v>
       </c>
       <c r="B286" t="n">
-        <v>187.97</v>
+        <v>191.24</v>
       </c>
       <c r="C286" t="n">
-        <v>0.08050942123361438</v>
+        <v>0.0096331026865073</v>
       </c>
       <c r="D286" t="n">
-        <v>0.07760977021804213</v>
+        <v>0.02757972398227185</v>
       </c>
       <c r="E286" t="n">
-        <v>54.39322883380369</v>
+        <v>50.92100766974868</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -6889,19 +6889,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45323.89305555556</v>
+        <v>45342.89296296296</v>
       </c>
       <c r="B287" t="n">
-        <v>187.92</v>
+        <v>191.02</v>
       </c>
       <c r="C287" t="n">
-        <v>0.07285530970301579</v>
+        <v>-0.005677752770907318</v>
       </c>
       <c r="D287" t="n">
-        <v>0.07665887811503687</v>
+        <v>0.02092822863163602</v>
       </c>
       <c r="E287" t="n">
-        <v>52.38737095696354</v>
+        <v>47.1093283811029</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -6912,19 +6912,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45323.89376157407</v>
+        <v>45342.89368055556</v>
       </c>
       <c r="B288" t="n">
-        <v>187.98</v>
+        <v>191.38</v>
       </c>
       <c r="C288" t="n">
-        <v>0.07081456352148052</v>
+        <v>0.01110921520714214</v>
       </c>
       <c r="D288" t="n">
-        <v>0.0754900151963256</v>
+        <v>0.01896442594673724</v>
       </c>
       <c r="E288" t="n">
-        <v>54.55320182736931</v>
+        <v>53.27315388131922</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -6935,19 +6935,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45323.8944675926</v>
+        <v>45342.89438657407</v>
       </c>
       <c r="B289" t="n">
-        <v>187.79</v>
+        <v>191.74</v>
       </c>
       <c r="C289" t="n">
-        <v>0.05325198957839916</v>
+        <v>0.05285274607081192</v>
       </c>
       <c r="D289" t="n">
-        <v>0.07104241007274031</v>
+        <v>0.02574208997155218</v>
       </c>
       <c r="E289" t="n">
-        <v>47.226986990558</v>
+        <v>58.48360762334635</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -6958,19 +6958,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45323.89517361111</v>
+        <v>45342.89509259259</v>
       </c>
       <c r="B290" t="n">
-        <v>187.67</v>
+        <v>191.62</v>
       </c>
       <c r="C290" t="n">
-        <v>0.02931262834576387</v>
+        <v>0.07538283155008685</v>
       </c>
       <c r="D290" t="n">
-        <v>0.06269645372734503</v>
+        <v>0.03567023828725912</v>
       </c>
       <c r="E290" t="n">
-        <v>43.2742219372066</v>
+        <v>56.23268121749613</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -6981,19 +6981,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45323.89587962963</v>
+        <v>45342.89581018518</v>
       </c>
       <c r="B291" t="n">
-        <v>187.68</v>
+        <v>191.61</v>
       </c>
       <c r="C291" t="n">
-        <v>0.01102039229917295</v>
+        <v>0.09137782351760393</v>
       </c>
       <c r="D291" t="n">
-        <v>0.05236124144171062</v>
+        <v>0.04681175533332808</v>
       </c>
       <c r="E291" t="n">
-        <v>43.69712880889365</v>
+        <v>56.03911842757111</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -7004,19 +7004,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45323.89658564814</v>
+        <v>45342.89651620371</v>
       </c>
       <c r="B292" t="n">
-        <v>187.61</v>
+        <v>191.72</v>
       </c>
       <c r="C292" t="n">
-        <v>-0.00902076576923605</v>
+        <v>0.1116430984378098</v>
       </c>
       <c r="D292" t="n">
-        <v>0.04008483999952129</v>
+        <v>0.05977802395422444</v>
       </c>
       <c r="E292" t="n">
-        <v>41.37196703831076</v>
+        <v>57.76146024397383</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -7027,19 +7027,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45323.89729166667</v>
+        <v>45342.89722222222</v>
       </c>
       <c r="B293" t="n">
-        <v>187.57</v>
+        <v>191.72</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.02781061023003417</v>
+        <v>0.1262481645611615</v>
       </c>
       <c r="D293" t="n">
-        <v>0.0265057499536102</v>
+        <v>0.07307205207561185</v>
       </c>
       <c r="E293" t="n">
-        <v>40.06019033114057</v>
+        <v>57.76146024397383</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -7050,19 +7050,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45323.89799768518</v>
+        <v>45342.89792824074</v>
       </c>
       <c r="B294" t="n">
-        <v>187.54</v>
+        <v>191.75</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.04460823070238007</v>
+        <v>0.1386453170559889</v>
       </c>
       <c r="D294" t="n">
-        <v>0.01228295382241215</v>
+        <v>0.08618670507168727</v>
       </c>
       <c r="E294" t="n">
-        <v>39.05988933731948</v>
+        <v>58.27848455439283</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -7073,19 +7073,19 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45323.8987037037</v>
+        <v>45342.89863425926</v>
       </c>
       <c r="B295" t="n">
-        <v>187.21</v>
+        <v>191.65</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.08358518998181808</v>
+        <v>0.1388009742293548</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.006890674938433898</v>
+        <v>0.09670955890322078</v>
       </c>
       <c r="E295" t="n">
-        <v>30.14350453128078</v>
+        <v>55.82548211852111</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -7096,19 +7096,19 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45323.89940972222</v>
+        <v>45342.89934027778</v>
       </c>
       <c r="B296" t="n">
-        <v>187.4</v>
+        <v>191.53</v>
       </c>
       <c r="C296" t="n">
-        <v>-0.09801346075653328</v>
+        <v>0.127768500798453</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.02511523210205378</v>
+        <v>0.1029213472822672</v>
       </c>
       <c r="E296" t="n">
-        <v>38.80509077371345</v>
+        <v>52.9455319397761</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -7119,19 +7119,19 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45323.90012731482</v>
+        <v>45342.90004629629</v>
       </c>
       <c r="B297" t="n">
-        <v>187.56</v>
+        <v>191.64</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.09543716622667375</v>
+        <v>0.1264437025172924</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.03917961892697777</v>
+        <v>0.1076258183292723</v>
       </c>
       <c r="E297" t="n">
-        <v>44.99064037692784</v>
+        <v>55.22575276579733</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -7142,19 +7142,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45323.90084490741</v>
+        <v>45342.90076388889</v>
       </c>
       <c r="B298" t="n">
-        <v>187.73</v>
+        <v>191.76</v>
       </c>
       <c r="C298" t="n">
-        <v>-0.07876984525623243</v>
+        <v>0.1335374508438463</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.0470976641928287</v>
+        <v>0.1128081448321871</v>
       </c>
       <c r="E298" t="n">
-        <v>50.69336011614305</v>
+        <v>57.63749514880522</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7165,19 +7165,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45323.90155092593</v>
+        <v>45342.90146990741</v>
       </c>
       <c r="B299" t="n">
-        <v>187.42</v>
+        <v>191.71</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.0895430855756274</v>
+        <v>0.1335848325715574</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.05558674846938844</v>
+        <v>0.1169634823800611</v>
       </c>
       <c r="E299" t="n">
-        <v>42.11868459685332</v>
+        <v>56.27727524218713</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7188,19 +7188,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45323.90225694444</v>
+        <v>45342.90217592593</v>
       </c>
       <c r="B300" t="n">
-        <v>187.52</v>
+        <v>191.64</v>
       </c>
       <c r="C300" t="n">
-        <v>-0.08898601647456417</v>
+        <v>0.1265155751493978</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.06226660207042359</v>
+        <v>0.1188739009339285</v>
       </c>
       <c r="E300" t="n">
-        <v>45.33108771362308</v>
+        <v>54.34367904442329</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7211,19 +7211,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45323.90296296297</v>
+        <v>45342.90288194444</v>
       </c>
       <c r="B301" t="n">
-        <v>187.64</v>
+        <v>191.84</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.07796283109371416</v>
+        <v>0.1354896261702265</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.06540584787508172</v>
+        <v>0.1221970459811881</v>
       </c>
       <c r="E301" t="n">
-        <v>48.98969264999599</v>
+        <v>58.70889619596188</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7234,19 +7234,19 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45323.90368055556</v>
+        <v>45342.90358796297</v>
       </c>
       <c r="B302" t="n">
-        <v>187.79</v>
+        <v>192.03</v>
       </c>
       <c r="C302" t="n">
-        <v>-0.05647215501363689</v>
+        <v>0.1561332316575772</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.06361910930279276</v>
+        <v>0.1289842831164659</v>
       </c>
       <c r="E302" t="n">
-        <v>53.20535604261662</v>
+        <v>62.38798159642088</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7257,19 +7257,19 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45323.90439814814</v>
+        <v>45342.90429398148</v>
       </c>
       <c r="B303" t="n">
-        <v>187.79</v>
+        <v>192.07</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.03899117341228475</v>
+        <v>0.1737185837441189</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.05869352212469116</v>
+        <v>0.1379311432419965</v>
       </c>
       <c r="E303" t="n">
-        <v>53.20535604261662</v>
+        <v>63.13273983094987</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -7280,19 +7280,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45323.90512731481</v>
+        <v>45342.905</v>
       </c>
       <c r="B304" t="n">
-        <v>187.83</v>
+        <v>192.08</v>
       </c>
       <c r="C304" t="n">
-        <v>-0.02166002060874916</v>
+        <v>0.1863143030855099</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.05128682182150276</v>
+        <v>0.1476077752106992</v>
       </c>
       <c r="E304" t="n">
-        <v>54.37157884009439</v>
+        <v>63.32823909653624</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -7303,19 +7303,19 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45323.90583333333</v>
+        <v>45342.90570601852</v>
       </c>
       <c r="B305" t="n">
-        <v>187.93</v>
+        <v>192.14</v>
       </c>
       <c r="C305" t="n">
-        <v>0.0001425637314298456</v>
+        <v>0.1988458290300628</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.04100094471091624</v>
+        <v>0.1578553859745719</v>
       </c>
       <c r="E305" t="n">
-        <v>57.2406490491004</v>
+        <v>64.54313896634201</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -7326,19 +7326,19 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45323.9065625</v>
+        <v>45342.90642361111</v>
       </c>
       <c r="B306" t="n">
-        <v>188.05</v>
+        <v>191.98</v>
       </c>
       <c r="C306" t="n">
-        <v>0.02679538549389804</v>
+        <v>0.1936343940404299</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.02744167866995339</v>
+        <v>0.1650111875877435</v>
       </c>
       <c r="E306" t="n">
-        <v>60.45410993869542</v>
+        <v>58.93598262372647</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -7349,19 +7349,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45323.90726851852</v>
+        <v>45342.90712962963</v>
       </c>
       <c r="B307" t="n">
-        <v>188.24</v>
+        <v>191.99</v>
       </c>
       <c r="C307" t="n">
-        <v>0.06252856054430822</v>
+        <v>0.1881424219654377</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.009447630827101067</v>
+        <v>0.1696374344632824</v>
       </c>
       <c r="E307" t="n">
-        <v>64.94606799495811</v>
+        <v>59.1747014403154</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -7372,19 +7372,19 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45323.90797453704</v>
+        <v>45342.90783564815</v>
       </c>
       <c r="B308" t="n">
-        <v>188.46</v>
+        <v>192.02</v>
       </c>
       <c r="C308" t="n">
-        <v>0.1073619192243314</v>
+        <v>0.1840886840495273</v>
       </c>
       <c r="D308" t="n">
-        <v>0.01391427918318542</v>
+        <v>0.1725276843805314</v>
       </c>
       <c r="E308" t="n">
-        <v>69.2951279336751</v>
+        <v>59.92732785942728</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -7395,19 +7395,19 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45323.90868055556</v>
+        <v>45342.90854166666</v>
       </c>
       <c r="B309" t="n">
-        <v>188.49</v>
+        <v>192.24</v>
       </c>
       <c r="C309" t="n">
-        <v>0.1436574347801809</v>
+        <v>0.1963646593684132</v>
       </c>
       <c r="D309" t="n">
-        <v>0.03986291030258451</v>
+        <v>0.1772950793781077</v>
       </c>
       <c r="E309" t="n">
-        <v>69.84455202058281</v>
+        <v>65.02010529393422</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -7418,19 +7418,19 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45323.90938657407</v>
+        <v>45342.90924768519</v>
       </c>
       <c r="B310" t="n">
-        <v>188.37</v>
+        <v>192.18</v>
       </c>
       <c r="C310" t="n">
-        <v>0.1608843209304496</v>
+        <v>0.1989584900670422</v>
       </c>
       <c r="D310" t="n">
-        <v>0.06406719242815753</v>
+        <v>0.1816277615158947</v>
       </c>
       <c r="E310" t="n">
-        <v>64.84617040172054</v>
+        <v>62.68045064503546</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -7441,19 +7441,19 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45323.9100925926</v>
+        <v>45342.9099537037</v>
       </c>
       <c r="B311" t="n">
-        <v>188.57</v>
+        <v>192.22</v>
       </c>
       <c r="C311" t="n">
-        <v>0.1885021454535263</v>
+        <v>0.2019142435765957</v>
       </c>
       <c r="D311" t="n">
-        <v>0.08895418303323128</v>
+        <v>0.1856850579280349</v>
       </c>
       <c r="E311" t="n">
-        <v>68.8476541984224</v>
+        <v>63.62029657926675</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -7464,19 +7464,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45323.91079861111</v>
+        <v>45342.91065972222</v>
       </c>
       <c r="B312" t="n">
-        <v>188.5</v>
+        <v>192.1</v>
       </c>
       <c r="C312" t="n">
-        <v>0.2024078239778362</v>
+        <v>0.1923563382798079</v>
       </c>
       <c r="D312" t="n">
-        <v>0.1116449112221523</v>
+        <v>0.1870193139983895</v>
       </c>
       <c r="E312" t="n">
-        <v>66.01531134687252</v>
+        <v>58.83343958208498</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -7487,19 +7487,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45323.91150462963</v>
+        <v>45342.91136574074</v>
       </c>
       <c r="B313" t="n">
-        <v>188.29</v>
+        <v>192.11</v>
       </c>
       <c r="C313" t="n">
-        <v>0.1942438077336135</v>
+        <v>0.1834735767135953</v>
       </c>
       <c r="D313" t="n">
-        <v>0.1281646905244445</v>
+        <v>0.1863101665414306</v>
       </c>
       <c r="E313" t="n">
-        <v>58.2704918945241</v>
+        <v>59.1095482938275</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -7510,19 +7510,19 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45323.91221064814</v>
+        <v>45342.91207175926</v>
       </c>
       <c r="B314" t="n">
-        <v>188.33</v>
+        <v>191.96</v>
       </c>
       <c r="C314" t="n">
-        <v>0.1888247772546947</v>
+        <v>0.1624574691992109</v>
       </c>
       <c r="D314" t="n">
-        <v>0.1402967078704946</v>
+        <v>0.1815396270729867</v>
       </c>
       <c r="E314" t="n">
-        <v>59.25112736932794</v>
+        <v>53.33133072483493</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -7533,19 +7533,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45323.91295138889</v>
+        <v>45342.91277777778</v>
       </c>
       <c r="B315" t="n">
-        <v>188.38</v>
+        <v>191.95</v>
       </c>
       <c r="C315" t="n">
-        <v>0.1864158527797031</v>
+        <v>0.1433427699306549</v>
       </c>
       <c r="D315" t="n">
-        <v>0.1495205368523363</v>
+        <v>0.1739002556445203</v>
       </c>
       <c r="E315" t="n">
-        <v>60.50066353635409</v>
+        <v>52.95964597071335</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -7556,19 +7556,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45323.91365740741</v>
+        <v>45342.9134837963</v>
       </c>
       <c r="B316" t="n">
-        <v>188.37</v>
+        <v>192.17</v>
       </c>
       <c r="C316" t="n">
-        <v>0.1816064008089597</v>
+        <v>0.1442831876555033</v>
       </c>
       <c r="D316" t="n">
-        <v>0.155937709643661</v>
+        <v>0.1679768420467169</v>
       </c>
       <c r="E316" t="n">
-        <v>60.10370135809623</v>
+        <v>59.62617253565804</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -7579,19 +7579,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45323.91436342592</v>
+        <v>45342.91418981482</v>
       </c>
       <c r="B317" t="n">
-        <v>188.32</v>
+        <v>192.37</v>
       </c>
       <c r="C317" t="n">
-        <v>0.1717801190562227</v>
+        <v>0.1593301452728895</v>
       </c>
       <c r="D317" t="n">
-        <v>0.1591061915261733</v>
+        <v>0.1662475026919514</v>
       </c>
       <c r="E317" t="n">
-        <v>58.05269929119127</v>
+        <v>64.5453673338138</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -7602,19 +7602,19 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45323.91508101852</v>
+        <v>45342.91489583333</v>
       </c>
       <c r="B318" t="n">
-        <v>188.46</v>
+        <v>192.14</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1732919482350894</v>
+        <v>0.1509557656822835</v>
       </c>
       <c r="D318" t="n">
-        <v>0.1619433428679566</v>
+        <v>0.1631891552900178</v>
       </c>
       <c r="E318" t="n">
-        <v>61.96629720051347</v>
+        <v>56.08272935209428</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -7625,19 +7625,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45323.91578703704</v>
+        <v>45342.91560185186</v>
       </c>
       <c r="B319" t="n">
-        <v>188.58</v>
+        <v>192.28</v>
       </c>
       <c r="C319" t="n">
-        <v>0.1820742423412014</v>
+        <v>0.1538424396134701</v>
       </c>
       <c r="D319" t="n">
-        <v>0.1659695227626055</v>
+        <v>0.1613198121547083</v>
       </c>
       <c r="E319" t="n">
-        <v>64.98208232744886</v>
+        <v>59.55851262606835</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -7648,19 +7648,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45323.91649305556</v>
+        <v>45342.91630787037</v>
       </c>
       <c r="B320" t="n">
-        <v>188.59</v>
+        <v>192.18</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1876777577537894</v>
+        <v>0.1463736805611404</v>
       </c>
       <c r="D320" t="n">
-        <v>0.1703111697608423</v>
+        <v>0.1583305858359947</v>
       </c>
       <c r="E320" t="n">
-        <v>65.22950873561163</v>
+        <v>56.14067352920345</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -7671,19 +7671,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45323.91719907407</v>
+        <v>45342.91701388889</v>
       </c>
       <c r="B321" t="n">
-        <v>188.56</v>
+        <v>192.31</v>
       </c>
       <c r="C321" t="n">
-        <v>0.1875360361226228</v>
+        <v>0.149224382949626</v>
       </c>
       <c r="D321" t="n">
-        <v>0.1737561430331984</v>
+        <v>0.156509345258721</v>
       </c>
       <c r="E321" t="n">
-        <v>63.7737033927637</v>
+        <v>59.40232094200226</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -7694,19 +7694,19 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45323.9179050926</v>
+        <v>45342.9177199074</v>
       </c>
       <c r="B322" t="n">
-        <v>188.54</v>
+        <v>192.03</v>
       </c>
       <c r="C322" t="n">
-        <v>0.1836923962563048</v>
+        <v>0.1274210941320462</v>
       </c>
       <c r="D322" t="n">
-        <v>0.1757433936778197</v>
+        <v>0.150691695033386</v>
       </c>
       <c r="E322" t="n">
-        <v>62.76795213327193</v>
+        <v>50.66321229580034</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -7717,19 +7717,19 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45323.91861111111</v>
+        <v>45342.91844907407</v>
       </c>
       <c r="B323" t="n">
-        <v>188.58</v>
+        <v>192.02</v>
       </c>
       <c r="C323" t="n">
-        <v>0.1817785200504431</v>
+        <v>0.1080889323048382</v>
       </c>
       <c r="D323" t="n">
-        <v>0.1769504189523444</v>
+        <v>0.1421711424876765</v>
       </c>
       <c r="E323" t="n">
-        <v>63.99108507082502</v>
+        <v>50.37815469053039</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -7740,19 +7740,19 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45323.91931712963</v>
+        <v>45342.91916666667</v>
       </c>
       <c r="B324" t="n">
-        <v>188.7</v>
+        <v>192</v>
       </c>
       <c r="C324" t="n">
-        <v>0.1877801438771485</v>
+        <v>0.09011542737121658</v>
       </c>
       <c r="D324" t="n">
-        <v>0.1791163639373052</v>
+        <v>0.1317599994643845</v>
       </c>
       <c r="E324" t="n">
-        <v>67.44621343581949</v>
+        <v>49.77494902406657</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -7763,19 +7763,19 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45323.92002314814</v>
+        <v>45342.91987268518</v>
       </c>
       <c r="B325" t="n">
-        <v>188.78</v>
+        <v>192.12</v>
       </c>
       <c r="C325" t="n">
-        <v>0.1967240925291378</v>
+        <v>0.08457931464690205</v>
       </c>
       <c r="D325" t="n">
-        <v>0.1826379096556718</v>
+        <v>0.122323862500888</v>
       </c>
       <c r="E325" t="n">
-        <v>69.54426727643443</v>
+        <v>53.38169510592123</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -7786,19 +7786,19 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45323.92074074074</v>
+        <v>45342.92059027778</v>
       </c>
       <c r="B326" t="n">
-        <v>188.84</v>
+        <v>192.25</v>
       </c>
       <c r="C326" t="n">
-        <v>0.2062759144925792</v>
+        <v>0.08964840792961581</v>
       </c>
       <c r="D326" t="n">
-        <v>0.1873655106230533</v>
+        <v>0.1157887715866336</v>
       </c>
       <c r="E326" t="n">
-        <v>71.05119263182988</v>
+        <v>56.98546616107561</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -7809,19 +7809,19 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45323.92144675926</v>
+        <v>45342.9212962963</v>
       </c>
       <c r="B327" t="n">
-        <v>188.98</v>
+        <v>192.38</v>
       </c>
       <c r="C327" t="n">
-        <v>0.2225769041848196</v>
+        <v>0.1029686558527487</v>
       </c>
       <c r="D327" t="n">
-        <v>0.1944077893354065</v>
+        <v>0.1132247484398566</v>
       </c>
       <c r="E327" t="n">
-        <v>74.25244656219313</v>
+        <v>60.29123005834751</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -7832,19 +7832,19 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45323.92216435185</v>
+        <v>45342.92200231482</v>
       </c>
       <c r="B328" t="n">
-        <v>188.86</v>
+        <v>192.5</v>
       </c>
       <c r="C328" t="n">
-        <v>0.2232391963461566</v>
+        <v>0.1218039651275262</v>
       </c>
       <c r="D328" t="n">
-        <v>0.2001740707375566</v>
+        <v>0.1149405917773905</v>
       </c>
       <c r="E328" t="n">
-        <v>67.37501586880865</v>
+        <v>63.10956717073901</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -7855,19 +7855,19 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45323.92287037037</v>
+        <v>45342.92270833333</v>
       </c>
       <c r="B329" t="n">
-        <v>188.84</v>
+        <v>192.7</v>
       </c>
       <c r="C329" t="n">
-        <v>0.2196186081951055</v>
+        <v>0.1511273103983513</v>
       </c>
       <c r="D329" t="n">
-        <v>0.2040629782290663</v>
+        <v>0.1221779355015827</v>
       </c>
       <c r="E329" t="n">
-        <v>66.27325538545372</v>
+        <v>67.27805934976566</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -7878,19 +7878,19 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45323.92357638889</v>
+        <v>45342.92341435186</v>
       </c>
       <c r="B330" t="n">
-        <v>188.74</v>
+        <v>192.66</v>
       </c>
       <c r="C330" t="n">
-        <v>0.206301980917857</v>
+        <v>0.1691883095660955</v>
       </c>
       <c r="D330" t="n">
-        <v>0.2045107787668245</v>
+        <v>0.1315800103144853</v>
       </c>
       <c r="E330" t="n">
-        <v>60.90996457944539</v>
+        <v>65.67956830022231</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -7901,19 +7901,19 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45323.92428240741</v>
+        <v>45342.92412037037</v>
       </c>
       <c r="B331" t="n">
-        <v>188.58</v>
+        <v>192.9</v>
       </c>
       <c r="C331" t="n">
-        <v>0.1807541734394533</v>
+        <v>0.2005558922808177</v>
       </c>
       <c r="D331" t="n">
-        <v>0.1997594577013503</v>
+        <v>0.1453751867077518</v>
       </c>
       <c r="E331" t="n">
-        <v>53.45589694730673</v>
+        <v>70.24728617635577</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -7924,19 +7924,19 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45323.92498842593</v>
+        <v>45342.92483796296</v>
       </c>
       <c r="B332" t="n">
-        <v>188.46</v>
+        <v>192.8</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1491055587661947</v>
+        <v>0.2148688885127967</v>
       </c>
       <c r="D332" t="n">
-        <v>0.1896286779143192</v>
+        <v>0.1592739270687608</v>
       </c>
       <c r="E332" t="n">
-        <v>48.64738772722199</v>
+        <v>66.28853338901594</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -7947,19 +7947,19 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45323.92569444444</v>
+        <v>45342.92554398148</v>
       </c>
       <c r="B333" t="n">
-        <v>188.56</v>
+        <v>192.88</v>
       </c>
       <c r="C333" t="n">
-        <v>0.1305876349194364</v>
+        <v>0.2300158925291669</v>
       </c>
       <c r="D333" t="n">
-        <v>0.1778204693153426</v>
+        <v>0.173422320160842</v>
       </c>
       <c r="E333" t="n">
-        <v>52.48326628482189</v>
+        <v>67.84949183924311</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -7970,19 +7970,19 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45323.92640046297</v>
+        <v>45342.92625</v>
       </c>
       <c r="B334" t="n">
-        <v>188.67</v>
+        <v>192.68</v>
       </c>
       <c r="C334" t="n">
-        <v>0.123366040624461</v>
+        <v>0.2233075236812851</v>
       </c>
       <c r="D334" t="n">
-        <v>0.1669295835771663</v>
+        <v>0.1833993608649306</v>
       </c>
       <c r="E334" t="n">
-        <v>56.34607313919726</v>
+        <v>60.32871867935703</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -7993,19 +7993,19 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45323.92710648148</v>
+        <v>45342.92695601852</v>
       </c>
       <c r="B335" t="n">
-        <v>188.49</v>
+        <v>192.74</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1019432412124388</v>
+        <v>0.2202931888439252</v>
       </c>
       <c r="D335" t="n">
-        <v>0.1539323151042208</v>
+        <v>0.1907781264607296</v>
       </c>
       <c r="E335" t="n">
-        <v>49.28549818543414</v>
+        <v>61.70028670276811</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -8016,19 +8016,19 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45323.9278125</v>
+        <v>45342.92766203704</v>
       </c>
       <c r="B336" t="n">
-        <v>188.45</v>
+        <v>192.8</v>
       </c>
       <c r="C336" t="n">
-        <v>0.08080636712938372</v>
+        <v>0.2202073915914013</v>
       </c>
       <c r="D336" t="n">
-        <v>0.1393071255092534</v>
+        <v>0.1966639794868639</v>
       </c>
       <c r="E336" t="n">
-        <v>47.85055225424691</v>
+        <v>63.07510430617296</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -8039,19 +8039,19 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45323.92851851852</v>
+        <v>45342.92837962963</v>
       </c>
       <c r="B337" t="n">
-        <v>188.36</v>
+        <v>192.94</v>
       </c>
       <c r="C337" t="n">
-        <v>0.05614578068679066</v>
+        <v>0.2287987767457764</v>
       </c>
       <c r="D337" t="n">
-        <v>0.1226748565447609</v>
+        <v>0.2030909389386464</v>
       </c>
       <c r="E337" t="n">
-        <v>44.69725820319518</v>
+        <v>66.13019254139647</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -8062,19 +8062,19 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45323.92922453704</v>
+        <v>45342.92909722222</v>
       </c>
       <c r="B338" t="n">
-        <v>188.35</v>
+        <v>192.84</v>
       </c>
       <c r="C338" t="n">
-        <v>0.03538724964840867</v>
+        <v>0.224945317516358</v>
       </c>
       <c r="D338" t="n">
-        <v>0.1052173351654904</v>
+        <v>0.2074618146541888</v>
       </c>
       <c r="E338" t="n">
-        <v>44.34756317956591</v>
+        <v>62.1732075609296</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -8085,19 +8085,19 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45323.92993055555</v>
+        <v>45342.92980324074</v>
       </c>
       <c r="B339" t="n">
-        <v>188.32</v>
+        <v>192.95</v>
       </c>
       <c r="C339" t="n">
-        <v>0.01632700738588255</v>
+        <v>0.2281376749005233</v>
       </c>
       <c r="D339" t="n">
-        <v>0.08743926960956887</v>
+        <v>0.2115969867034557</v>
       </c>
       <c r="E339" t="n">
-        <v>43.25425316962515</v>
+        <v>64.67700668034757</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -8108,19 +8108,19 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45323.93063657408</v>
+        <v>45342.93050925926</v>
       </c>
       <c r="B340" t="n">
-        <v>188.35</v>
+        <v>192.75</v>
       </c>
       <c r="C340" t="n">
-        <v>0.003600868776942434</v>
+        <v>0.2120845341057702</v>
       </c>
       <c r="D340" t="n">
-        <v>0.07067158944304359</v>
+        <v>0.2116944961839186</v>
       </c>
       <c r="E340" t="n">
-        <v>44.72186639864201</v>
+        <v>57.25630039228033</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -8131,19 +8131,19 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45323.93134259259</v>
+        <v>45342.93121527778</v>
       </c>
       <c r="B341" t="n">
-        <v>188.4</v>
+        <v>192.77</v>
       </c>
       <c r="C341" t="n">
-        <v>-0.002422184193335397</v>
+        <v>0.198685810872206</v>
       </c>
       <c r="D341" t="n">
-        <v>0.0560528347157678</v>
+        <v>0.2090927591215761</v>
       </c>
       <c r="E341" t="n">
-        <v>47.17408273606254</v>
+        <v>57.77799798878749</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -8154,19 +8154,19 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45323.93204861111</v>
+        <v>45342.93192129629</v>
       </c>
       <c r="B342" t="n">
-        <v>188.58</v>
+        <v>192.69</v>
       </c>
       <c r="C342" t="n">
-        <v>0.00724547725951652</v>
+        <v>0.1795422435424996</v>
       </c>
       <c r="D342" t="n">
-        <v>0.04629136322451755</v>
+        <v>0.2031826560057608</v>
       </c>
       <c r="E342" t="n">
-        <v>54.92614569207179</v>
+        <v>54.89197201857885</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -8177,19 +8177,19 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45323.93275462963</v>
+        <v>45342.93262731482</v>
       </c>
       <c r="B343" t="n">
-        <v>188.31</v>
+        <v>192.77</v>
       </c>
       <c r="C343" t="n">
-        <v>-0.006801175189195874</v>
+        <v>0.1688794230586836</v>
       </c>
       <c r="D343" t="n">
-        <v>0.03567285554177486</v>
+        <v>0.1963220094163454</v>
       </c>
       <c r="E343" t="n">
-        <v>44.40078798666404</v>
+        <v>57.19458596555467</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -8200,19 +8200,19 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45323.93346064815</v>
+        <v>45342.93333333333</v>
       </c>
       <c r="B344" t="n">
-        <v>188.35</v>
+        <v>192.62</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.01453799776081155</v>
+        <v>0.1466349976304855</v>
       </c>
       <c r="D344" t="n">
-        <v>0.02563068488125758</v>
+        <v>0.1863846070591734</v>
       </c>
       <c r="E344" t="n">
-        <v>46.0501975528221</v>
+        <v>51.85013455631133</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -8223,19 +8223,19 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45323.93416666667</v>
+        <v>45342.93403935185</v>
       </c>
       <c r="B345" t="n">
-        <v>188.39</v>
+        <v>192.89</v>
       </c>
       <c r="C345" t="n">
-        <v>-0.01724305250769476</v>
+        <v>0.1490744364245984</v>
       </c>
       <c r="D345" t="n">
-        <v>0.01705593740346711</v>
+        <v>0.1789225729322584</v>
       </c>
       <c r="E345" t="n">
-        <v>47.7204286820537</v>
+        <v>59.23428397036649</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -8246,19 +8246,19 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45323.93488425926</v>
+        <v>45342.93476851852</v>
       </c>
       <c r="B346" t="n">
-        <v>188.5</v>
+        <v>192.91</v>
       </c>
       <c r="C346" t="n">
-        <v>-0.01039096659707184</v>
+        <v>0.15088226526413</v>
       </c>
       <c r="D346" t="n">
-        <v>0.01156655660335932</v>
+        <v>0.1733145113986327</v>
       </c>
       <c r="E346" t="n">
-        <v>52.11117433007706</v>
+        <v>59.72697041543682</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -8269,19 +8269,19 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45323.93559027778</v>
+        <v>45342.93547453704</v>
       </c>
       <c r="B347" t="n">
-        <v>188.5</v>
+        <v>192.98</v>
       </c>
       <c r="C347" t="n">
-        <v>-0.004904107646041211</v>
+        <v>0.1561632449501928</v>
       </c>
       <c r="D347" t="n">
-        <v>0.008272423753479217</v>
+        <v>0.1698842581089448</v>
       </c>
       <c r="E347" t="n">
-        <v>52.11117433007706</v>
+        <v>61.48164273044095</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -8292,19 +8292,19 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45323.9362962963</v>
+        <v>45342.93618055555</v>
       </c>
       <c r="B348" t="n">
-        <v>188.31</v>
+        <v>193.15</v>
       </c>
       <c r="C348" t="n">
-        <v>-0.01570609442063642</v>
+        <v>0.1720823800894493</v>
       </c>
       <c r="D348" t="n">
-        <v>0.00347672011865609</v>
+        <v>0.1703238825050457</v>
       </c>
       <c r="E348" t="n">
-        <v>44.60645796355591</v>
+        <v>65.42184978418862</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -8315,19 +8315,19 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45323.93700231481</v>
+        <v>45342.93688657408</v>
       </c>
       <c r="B349" t="n">
-        <v>188.24</v>
+        <v>193.09</v>
       </c>
       <c r="C349" t="n">
-        <v>-0.02957424822500343</v>
+        <v>0.1778072594140667</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.003133473550075814</v>
+        <v>0.1718205578868499</v>
       </c>
       <c r="E349" t="n">
-        <v>42.19545250267925</v>
+        <v>62.97337699035598</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -8338,19 +8338,19 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45323.93770833333</v>
+        <v>45342.93759259259</v>
       </c>
       <c r="B350" t="n">
-        <v>188.37</v>
+        <v>193.29</v>
       </c>
       <c r="C350" t="n">
-        <v>-0.02973221205206755</v>
+        <v>0.1962206861280436</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.008453221250474163</v>
+        <v>0.1767005835350886</v>
       </c>
       <c r="E350" t="n">
-        <v>47.83459459315878</v>
+        <v>67.35871558829953</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -8361,19 +8361,19 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45323.93841435185</v>
+        <v>45342.93829861111</v>
       </c>
       <c r="B351" t="n">
-        <v>188.38</v>
+        <v>192.98</v>
       </c>
       <c r="C351" t="n">
-        <v>-0.02871942346013157</v>
+        <v>0.1836816821446519</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.01250646169240564</v>
+        <v>0.1780968032570013</v>
       </c>
       <c r="E351" t="n">
-        <v>48.2527900418435</v>
+        <v>56.24008337798861</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -8384,19 +8384,19 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45323.93912037037</v>
+        <v>45342.93900462963</v>
       </c>
       <c r="B352" t="n">
-        <v>188.52</v>
+        <v>192.67</v>
       </c>
       <c r="C352" t="n">
-        <v>-0.01643055007946259</v>
+        <v>0.1470350929024562</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.01329127936981703</v>
+        <v>0.1718844611860923</v>
       </c>
       <c r="E352" t="n">
-        <v>53.83289165790661</v>
+        <v>47.75159873879312</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -8407,19 +8407,19 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45323.93983796296</v>
+        <v>45342.93971064815</v>
       </c>
       <c r="B353" t="n">
-        <v>188.35</v>
+        <v>192.39</v>
       </c>
       <c r="C353" t="n">
-        <v>-0.02017652620477861</v>
+        <v>0.09431158175371479</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.01466832873680935</v>
+        <v>0.1563698852996168</v>
       </c>
       <c r="E353" t="n">
-        <v>47.17988959610229</v>
+        <v>41.63851353238068</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -8430,19 +8430,19 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45323.94054398148</v>
+        <v>45342.94042824074</v>
       </c>
       <c r="B354" t="n">
-        <v>188.57</v>
+        <v>192.37</v>
       </c>
       <c r="C354" t="n">
-        <v>-0.005331618312027331</v>
+        <v>0.05033377009300466</v>
       </c>
       <c r="D354" t="n">
-        <v>-0.01280098665185295</v>
+        <v>0.1351626622582943</v>
       </c>
       <c r="E354" t="n">
-        <v>54.94078779160145</v>
+        <v>41.23247376368403</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45323.94126157407</v>
+        <v>45342.94113425926</v>
       </c>
       <c r="B355" t="n">
-        <v>188.71</v>
+        <v>192.32</v>
       </c>
       <c r="C355" t="n">
-        <v>0.01752785788099231</v>
+        <v>0.01131601144035699</v>
       </c>
       <c r="D355" t="n">
-        <v>-0.006735217745283897</v>
+        <v>0.1103933320947069</v>
       </c>
       <c r="E355" t="n">
-        <v>59.0628998656153</v>
+        <v>40.17764367486624</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -8476,19 +8476,19 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45323.94197916667</v>
+        <v>45342.94184027778</v>
       </c>
       <c r="B356" t="n">
-        <v>188.74</v>
+        <v>192.48</v>
       </c>
       <c r="C356" t="n">
-        <v>0.03763111862613755</v>
+        <v>-0.00661888222131779</v>
       </c>
       <c r="D356" t="n">
-        <v>0.002138049529000392</v>
+        <v>0.08699088923150196</v>
       </c>
       <c r="E356" t="n">
-        <v>59.90926568186882</v>
+        <v>45.02436484318509</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -8499,19 +8499,19 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45323.94268518518</v>
+        <v>45342.9425462963</v>
       </c>
       <c r="B357" t="n">
-        <v>188.79</v>
+        <v>192.51</v>
       </c>
       <c r="C357" t="n">
-        <v>0.05694129592075114</v>
+        <v>-0.01820184583402806</v>
       </c>
       <c r="D357" t="n">
-        <v>0.01309869880735054</v>
+        <v>0.06595234221839595</v>
       </c>
       <c r="E357" t="n">
-        <v>61.34374486782828</v>
+        <v>45.90926316832148</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -8522,19 +8522,19 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45323.94339120371</v>
+        <v>45342.94326388889</v>
       </c>
       <c r="B358" t="n">
-        <v>188.53</v>
+        <v>192.85</v>
       </c>
       <c r="C358" t="n">
-        <v>0.05068070780777134</v>
+        <v>5.311823960596485e-05</v>
       </c>
       <c r="D358" t="n">
-        <v>0.0206151006074347</v>
+        <v>0.05277249742263795</v>
       </c>
       <c r="E358" t="n">
-        <v>51.10392092883149</v>
+        <v>54.79087117426882</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -8545,19 +8545,19 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45323.94409722222</v>
+        <v>45342.94396990741</v>
       </c>
       <c r="B359" t="n">
-        <v>188.64</v>
+        <v>192.81</v>
       </c>
       <c r="C359" t="n">
-        <v>0.05397305948213216</v>
+        <v>0.01116395199252906</v>
       </c>
       <c r="D359" t="n">
-        <v>0.0272866923823742</v>
+        <v>0.04445078833661618</v>
       </c>
       <c r="E359" t="n">
-        <v>54.55985858557944</v>
+        <v>53.67426363307846</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -8568,19 +8568,19 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45323.94480324074</v>
+        <v>45342.9446875</v>
       </c>
       <c r="B360" t="n">
-        <v>188.67</v>
+        <v>192.78</v>
       </c>
       <c r="C360" t="n">
-        <v>0.05833062208191109</v>
+        <v>0.01734863425488697</v>
       </c>
       <c r="D360" t="n">
-        <v>0.03349547832228158</v>
+        <v>0.03903035752027034</v>
       </c>
       <c r="E360" t="n">
-        <v>55.48396418267455</v>
+        <v>52.80507515112366</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -8591,19 +8591,19 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45323.94550925926</v>
+        <v>45342.94540509259</v>
       </c>
       <c r="B361" t="n">
-        <v>188.64</v>
+        <v>193.12</v>
       </c>
       <c r="C361" t="n">
-        <v>0.05868676802666073</v>
+        <v>0.04911898492477462</v>
       </c>
       <c r="D361" t="n">
-        <v>0.03853373626315741</v>
+        <v>0.04104808300117119</v>
       </c>
       <c r="E361" t="n">
-        <v>54.29484547616354</v>
+        <v>60.5936264279887</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -8614,19 +8614,19 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45323.94621527778</v>
+        <v>45342.94611111111</v>
       </c>
       <c r="B362" t="n">
-        <v>188.84</v>
+        <v>193.11</v>
       </c>
       <c r="C362" t="n">
-        <v>0.07425142062692203</v>
+        <v>0.07265280399747098</v>
       </c>
       <c r="D362" t="n">
-        <v>0.04567727313591034</v>
+        <v>0.04736902720043115</v>
       </c>
       <c r="E362" t="n">
-        <v>60.38965062626236</v>
+        <v>60.27853987088328</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -8637,19 +8637,19 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45323.94692129629</v>
+        <v>45342.94681712963</v>
       </c>
       <c r="B363" t="n">
-        <v>188.8</v>
+        <v>193.05</v>
       </c>
       <c r="C363" t="n">
-        <v>0.08240889579099075</v>
+        <v>0.08547670436496446</v>
       </c>
       <c r="D363" t="n">
-        <v>0.05302359766692642</v>
+        <v>0.05499056263333782</v>
       </c>
       <c r="E363" t="n">
-        <v>58.70358698891498</v>
+        <v>58.31902257988244</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
@@ -8660,19 +8660,19 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45323.94762731482</v>
+        <v>45342.94752314815</v>
       </c>
       <c r="B364" t="n">
-        <v>188.76</v>
+        <v>193.06</v>
       </c>
       <c r="C364" t="n">
-        <v>0.08467006412985256</v>
+        <v>0.09534754705333626</v>
       </c>
       <c r="D364" t="n">
-        <v>0.05935289095951166</v>
+        <v>0.06306195951733751</v>
       </c>
       <c r="E364" t="n">
-        <v>56.99004355399303</v>
+        <v>58.56080854189749</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -8683,19 +8683,19 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45323.94833333333</v>
+        <v>45342.94822916666</v>
       </c>
       <c r="B365" t="n">
-        <v>188.79</v>
+        <v>193.21</v>
       </c>
       <c r="C365" t="n">
-        <v>0.08786989614316099</v>
+        <v>0.1139603434951653</v>
       </c>
       <c r="D365" t="n">
-        <v>0.06505629199624152</v>
+        <v>0.07324163631290306</v>
       </c>
       <c r="E365" t="n">
-        <v>57.9807048330351</v>
+        <v>62.11122796110349</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -8706,19 +8706,19 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45323.94903935185</v>
+        <v>45342.94893518519</v>
       </c>
       <c r="B366" t="n">
-        <v>188.96</v>
+        <v>193.38</v>
       </c>
       <c r="C366" t="n">
-        <v>0.1029367742602005</v>
+        <v>0.1408055789582079</v>
       </c>
       <c r="D366" t="n">
-        <v>0.07263238844903333</v>
+        <v>0.08675442484196402</v>
       </c>
       <c r="E366" t="n">
-        <v>63.15913740832374</v>
+        <v>65.69819739815441</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -8729,19 +8729,19 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45323.94978009259</v>
+        <v>45342.9496412037</v>
       </c>
       <c r="B367" t="n">
-        <v>189</v>
+        <v>193.4</v>
       </c>
       <c r="C367" t="n">
-        <v>0.1167591229358607</v>
+        <v>0.1618289904582184</v>
       </c>
       <c r="D367" t="n">
-        <v>0.0814577353463988</v>
+        <v>0.1017693379652149</v>
       </c>
       <c r="E367" t="n">
-        <v>64.27476789858454</v>
+        <v>66.1047546255424</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -8752,19 +8752,19 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45323.95048611111</v>
+        <v>45342.9503587963</v>
       </c>
       <c r="B368" t="n">
-        <v>188.9</v>
+        <v>193.35</v>
       </c>
       <c r="C368" t="n">
-        <v>0.1182808021212054</v>
+        <v>0.1724675152464386</v>
       </c>
       <c r="D368" t="n">
-        <v>0.08882234870136013</v>
+        <v>0.1159089734214596</v>
       </c>
       <c r="E368" t="n">
-        <v>59.42950455153685</v>
+        <v>64.06056947245588</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -8775,19 +8775,19 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45323.95119212963</v>
+        <v>45342.95106481481</v>
       </c>
       <c r="B369" t="n">
-        <v>188.84</v>
+        <v>193.33</v>
       </c>
       <c r="C369" t="n">
-        <v>0.1133387467579041</v>
+        <v>0.1772416584252881</v>
       </c>
       <c r="D369" t="n">
-        <v>0.09372562831266892</v>
+        <v>0.1281755104222253</v>
       </c>
       <c r="E369" t="n">
-        <v>56.66918252430426</v>
+        <v>63.21844552095657</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -8798,19 +8798,19 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45323.95189814815</v>
+        <v>45342.95177083334</v>
       </c>
       <c r="B370" t="n">
-        <v>188.74</v>
+        <v>193.38</v>
       </c>
       <c r="C370" t="n">
-        <v>0.1001979484333049</v>
+        <v>0.1829508400221016</v>
       </c>
       <c r="D370" t="n">
-        <v>0.09502009233679612</v>
+        <v>0.1391305763422006</v>
       </c>
       <c r="E370" t="n">
-        <v>52.30841777762096</v>
+        <v>64.47573426276116</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -8821,19 +8821,19 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45323.95260416667</v>
+        <v>45342.95247685185</v>
       </c>
       <c r="B371" t="n">
-        <v>188.37</v>
+        <v>193.45</v>
       </c>
       <c r="C371" t="n">
-        <v>0.05924492469256393</v>
+        <v>0.1909229812729052</v>
       </c>
       <c r="D371" t="n">
-        <v>0.08786505880794969</v>
+        <v>0.1494890573283415</v>
       </c>
       <c r="E371" t="n">
-        <v>40.03334670263094</v>
+        <v>66.21681251022201</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -8844,19 +8844,19 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45323.95331018518</v>
+        <v>45342.95318287037</v>
       </c>
       <c r="B372" t="n">
-        <v>188.33</v>
+        <v>193.24</v>
       </c>
       <c r="C372" t="n">
-        <v>0.02329318330376395</v>
+        <v>0.1782410636628811</v>
       </c>
       <c r="D372" t="n">
-        <v>0.07495068370711255</v>
+        <v>0.1552394585952494</v>
       </c>
       <c r="E372" t="n">
-        <v>38.96868619085267</v>
+        <v>57.16511199846542</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -8867,19 +8867,19 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45323.9540162037</v>
+        <v>45342.95388888889</v>
       </c>
       <c r="B373" t="n">
-        <v>188.44</v>
+        <v>193.18</v>
       </c>
       <c r="C373" t="n">
-        <v>0.003635343944438318</v>
+        <v>0.1614875263483384</v>
       </c>
       <c r="D373" t="n">
-        <v>0.06068761575457771</v>
+        <v>0.1564890721458672</v>
       </c>
       <c r="E373" t="n">
-        <v>43.42457600750537</v>
+        <v>54.8577459243039</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -8890,19 +8890,19 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45323.95472222222</v>
+        <v>45342.95459490741</v>
       </c>
       <c r="B374" t="n">
-        <v>188.36</v>
+        <v>193.29</v>
       </c>
       <c r="C374" t="n">
-        <v>-0.01818929195187025</v>
+        <v>0.1552961506591828</v>
       </c>
       <c r="D374" t="n">
-        <v>0.04491223421328812</v>
+        <v>0.1562504878485304</v>
       </c>
       <c r="E374" t="n">
-        <v>41.07575836768606</v>
+        <v>58.18967043330013</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
